--- a/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\ReedsSubset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF9843-E9B5-4B73-A88A-2380E2423EB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243771B8-0469-475F-B209-8474D698EC76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
     <sheet name="all on one" sheetId="2" r:id="rId2"/>
+    <sheet name="MFG Eff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -87,15 +88,38 @@
   <si>
     <t>Copper (g)</t>
   </si>
+  <si>
+    <t>Degradation Rate</t>
+  </si>
+  <si>
+    <t>Mahmoudi, Sajjad, Nazmul Huda, and Masud Behnia. 2020. “Critical Assessment of Renewable Energy Waste Generation in OECD Countries: Decommissioned PV Panels.” Resources, Conservation and Recycling 164 (September): 105145. https://doi.org/10.1016/j.resconrec.2020.105145.</t>
+  </si>
+  <si>
+    <t>Average Module Efficiency</t>
+  </si>
+  <si>
+    <t>ton/MW</t>
+  </si>
+  <si>
+    <t>Weckend, Stephanie, Andreas Wade, and Garvin A Heath. 2016. “End of Life Management: Solar Photovoltaic Panels.” NREL/TP-6A20-73852, 1561525. IRENA. https://doi.org/10.2172/1561525.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,16 +142,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -223,7 +252,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'mass per m2'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,7 +275,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$44</c:f>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -381,7 +410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$44</c:f>
+              <c:f>'mass per m2'!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -765,6 +794,1833 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Material Manufacturing Efficiencies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$B$2:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C26-46B4-9DF1-2F12F703F471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silicon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$C$2:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>31.313555950000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.33536239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.661818310000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.63711241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.920500959999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.133176429999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.540356459999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.417000399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.32333715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.600552669999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.063940110000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.726759759999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.180844960000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.587672920000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.98371616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.784939679999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.379740209999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.848360650000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.190564620000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.655697110000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.125574380000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C26-46B4-9DF1-2F12F703F471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aluminium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$D$2:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C26-46B4-9DF1-2F12F703F471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$E$2:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C26-46B4-9DF1-2F12F703F471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$F$2:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9C26-46B4-9DF1-2F12F703F471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="644818312"/>
+        <c:axId val="644815360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="644818312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+          <c:min val="2010"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644815360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="644815360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="101"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644818312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -845,7 +2701,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'mass per m2'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -868,7 +2724,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$44</c:f>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1003,7 +2859,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$44</c:f>
+              <c:f>'mass per m2'!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1148,7 +3004,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'mass per m2'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1171,7 +3027,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$44</c:f>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1306,7 +3162,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$44</c:f>
+              <c:f>'mass per m2'!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1802,7 +3658,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>'mass per m2'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1825,7 +3681,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$44</c:f>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1960,7 +3816,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$44</c:f>
+              <c:f>'mass per m2'!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2105,7 +3961,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>'mass per m2'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2128,7 +3984,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$44</c:f>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2263,7 +4119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$44</c:f>
+              <c:f>'mass per m2'!$F$3:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2714,6 +4570,1490 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Average Module Efficiency with Literature comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mass per m2'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Module Efficiency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'mass per m2'!$G$3:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>14.57777778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.252588490000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.894864800000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.362882320000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.733112049999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.040369699999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.303538889999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.534045020000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.739342440000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.924571610000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.093431240000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.248673839999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.392404590000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.526270570000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.651585300000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.769413579999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.880630870000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.985965879999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.08603183</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.181349740000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.272366120000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.359466650000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.442986730000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.523219999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.600424960000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.674830409999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.746639890000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.816035240000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.88317962</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.94822001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.011289269999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.072507909999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D99-43E9-BB3B-418D1BCBB51A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mass per m2'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mahmoudi, Sajjad, Nazmul Huda, and Masud Behnia. 2020. “Critical Assessment of Renewable Energy Waste Generation in OECD Countries: Decommissioned PV Panels.” Resources, Conservation and Recycling 164 (September): 105145. https://doi.org/10.1016/j.resconr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'mass per m2'!$K$3:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D99-43E9-BB3B-418D1BCBB51A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="464364216"/>
+        <c:axId val="464366840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="464364216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+          <c:min val="2010"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464366840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="464366840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="28"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Module Efficiency (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464364216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mass per m2'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degradation Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'mass per m2'!$A$3:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'mass per m2'!$J$3:$J$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F94-49DC-A13B-E0B271D198FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="626842160"/>
+        <c:axId val="626840848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="626842160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+          <c:min val="2005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626840848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="626840848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626842160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Baseline mass: Glass</a:t>
             </a:r>
           </a:p>
@@ -3301,7 +6641,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4258,7 +7598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5215,7 +8555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7153,6 +10493,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -7268,6 +10648,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -7304,7 +10764,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -7341,7 +10801,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7897,7 +11357,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8413,7 +11873,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8929,7 +12389,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9445,7 +12905,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9961,7 +13421,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10477,7 +13937,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10993,20 +14453,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11033,16 +16041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11069,16 +16077,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11098,6 +16106,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AFAD5A-4710-4801-8077-5273282B378F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5329FFC6-9FF8-4F27-BE54-58CF9DDC5B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11148,16 +16228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11253,6 +16333,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E988897-F802-414A-9CE7-B2FD9BCA1137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11558,15 +16679,1601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7BEC5-C527-4A05-96EF-71A772E43E2F}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2009</v>
+      </c>
+      <c r="B3">
+        <v>8000</v>
+      </c>
+      <c r="C3">
+        <v>419.22</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="F3">
+        <v>25.6</v>
+      </c>
+      <c r="G3">
+        <v>14.57777778</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>0.6</v>
+      </c>
+      <c r="K3">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4">
+        <v>419.22</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="F4">
+        <v>12.327416169999999</v>
+      </c>
+      <c r="G4">
+        <v>14.7</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
+      <c r="K4">
+        <v>15.3</v>
+      </c>
+      <c r="L4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5">
+        <v>419.22</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="F5">
+        <v>10.272846810000001</v>
+      </c>
+      <c r="G5">
+        <v>15.1</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6">
+        <v>8000</v>
+      </c>
+      <c r="C6">
+        <v>419.22</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="F6">
+        <v>8.2182774490000003</v>
+      </c>
+      <c r="G6">
+        <v>15.4</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7">
+        <v>8160</v>
+      </c>
+      <c r="C7">
+        <v>419.22</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="F7">
+        <v>5.7527942139999997</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8">
+        <v>8320</v>
+      </c>
+      <c r="C8">
+        <v>419.22</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="F8">
+        <v>5.3418803419999996</v>
+      </c>
+      <c r="G8">
+        <v>16.3</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9">
+        <v>8280</v>
+      </c>
+      <c r="C9">
+        <v>419.22</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>5.7881600000000004</v>
+      </c>
+      <c r="F9">
+        <v>4.5200525970000003</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
+        <v>15.3</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10">
+        <v>8240</v>
+      </c>
+      <c r="C10">
+        <v>419.22</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>6.2003199999999996</v>
+      </c>
+      <c r="F10">
+        <v>4.0997570090000002</v>
+      </c>
+      <c r="G10">
+        <v>17.5</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>0.3</v>
+      </c>
+      <c r="K10">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>8225</v>
+      </c>
+      <c r="C11">
+        <v>419.22</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>7.2038399999999996</v>
+      </c>
+      <c r="F11">
+        <v>4.079110301</v>
+      </c>
+      <c r="G11">
+        <v>17.7</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12">
+        <v>8750</v>
+      </c>
+      <c r="C12">
+        <v>410.85500830000001</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>7.45472</v>
+      </c>
+      <c r="F12">
+        <v>4.3128338230000001</v>
+      </c>
+      <c r="G12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
+        <v>8800</v>
+      </c>
+      <c r="C13">
+        <v>402.1406667</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>8.26112</v>
+      </c>
+      <c r="F13">
+        <v>4.1473098100000003</v>
+      </c>
+      <c r="G13">
+        <v>19.2</v>
+      </c>
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14">
+        <v>8800</v>
+      </c>
+      <c r="C14">
+        <v>380.05398330000003</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>8.2252799999999997</v>
+      </c>
+      <c r="F14">
+        <v>3.5949654450000001</v>
+      </c>
+      <c r="G14">
+        <v>20.252588490000001</v>
+      </c>
+      <c r="H14">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>15.3</v>
+      </c>
+      <c r="L14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2021</v>
+      </c>
+      <c r="B15">
+        <v>8800</v>
+      </c>
+      <c r="C15">
+        <v>367.38034160000001</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>8.2700800000000001</v>
+      </c>
+      <c r="F15">
+        <v>3.3412788689999999</v>
+      </c>
+      <c r="G15">
+        <v>20.894864800000001</v>
+      </c>
+      <c r="H15">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16">
+        <v>8800</v>
+      </c>
+      <c r="C16">
+        <v>354.70670000000001</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>8.3148800000000005</v>
+      </c>
+      <c r="F16">
+        <v>3.0936340219999998</v>
+      </c>
+      <c r="G16">
+        <v>21.362882320000001</v>
+      </c>
+      <c r="H16">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2023</v>
+      </c>
+      <c r="B17">
+        <v>8800</v>
+      </c>
+      <c r="C17">
+        <v>348.49603339999999</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>8.3865599999999993</v>
+      </c>
+      <c r="F17">
+        <v>2.8988638820000001</v>
+      </c>
+      <c r="G17">
+        <v>21.733112049999999</v>
+      </c>
+      <c r="H17">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>38</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18">
+        <v>8800</v>
+      </c>
+      <c r="C18">
+        <v>342.2853667</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>8.45824</v>
+      </c>
+      <c r="F18">
+        <v>2.692895407</v>
+      </c>
+      <c r="G18">
+        <v>22.040369699999999</v>
+      </c>
+      <c r="H18">
+        <v>33</v>
+      </c>
+      <c r="I18">
+        <v>38</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2025</v>
+      </c>
+      <c r="B19">
+        <v>8800</v>
+      </c>
+      <c r="C19">
+        <v>336.01129950000001</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>8.1954133329999994</v>
+      </c>
+      <c r="F19">
+        <v>2.542951049</v>
+      </c>
+      <c r="G19">
+        <v>22.303538889999999</v>
+      </c>
+      <c r="H19">
+        <v>33</v>
+      </c>
+      <c r="I19">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>15.3</v>
+      </c>
+      <c r="L19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2026</v>
+      </c>
+      <c r="B20">
+        <v>8800</v>
+      </c>
+      <c r="C20">
+        <v>329.73723219999999</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>7.9325866669999998</v>
+      </c>
+      <c r="F20">
+        <v>2.4012622069999998</v>
+      </c>
+      <c r="G20">
+        <v>22.534045020000001</v>
+      </c>
+      <c r="H20">
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2027</v>
+      </c>
+      <c r="B21">
+        <v>8800</v>
+      </c>
+      <c r="C21">
+        <v>323.463165</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>7.6697600000000001</v>
+      </c>
+      <c r="F21">
+        <v>2.2668844890000002</v>
+      </c>
+      <c r="G21">
+        <v>22.739342440000001</v>
+      </c>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2028</v>
+      </c>
+      <c r="B22">
+        <v>8875</v>
+      </c>
+      <c r="C22">
+        <v>320.40829330000003</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>7.3949866670000004</v>
+      </c>
+      <c r="F22">
+        <v>2.1296348279999999</v>
+      </c>
+      <c r="G22">
+        <v>22.924571610000001</v>
+      </c>
+      <c r="H22">
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2029</v>
+      </c>
+      <c r="B23">
+        <v>8875</v>
+      </c>
+      <c r="C23">
+        <v>317.35342170000001</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>7.1202133329999997</v>
+      </c>
+      <c r="F23">
+        <v>1.9927764130000001</v>
+      </c>
+      <c r="G23">
+        <v>23.093431240000001</v>
+      </c>
+      <c r="H23">
+        <v>33</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2030</v>
+      </c>
+      <c r="B24">
+        <v>8875</v>
+      </c>
+      <c r="C24">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>6.84544</v>
+      </c>
+      <c r="F24">
+        <v>1.856311209</v>
+      </c>
+      <c r="G24">
+        <v>23.248673839999999</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>15.3</v>
+      </c>
+      <c r="L24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2031</v>
+      </c>
+      <c r="B25">
+        <v>8875</v>
+      </c>
+      <c r="C25">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>6.84544</v>
+      </c>
+      <c r="F25">
+        <v>1.856311209</v>
+      </c>
+      <c r="G25">
+        <v>23.392404590000002</v>
+      </c>
+      <c r="H25">
+        <v>33</v>
+      </c>
+      <c r="I25">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2032</v>
+      </c>
+      <c r="B26">
+        <v>8875</v>
+      </c>
+      <c r="C26">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>6.84544</v>
+      </c>
+      <c r="F26">
+        <v>1.856311209</v>
+      </c>
+      <c r="G26">
+        <v>23.526270570000001</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2033</v>
+      </c>
+      <c r="B27">
+        <v>8875</v>
+      </c>
+      <c r="C27">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>6.84544</v>
+      </c>
+      <c r="F27">
+        <v>1.856311209</v>
+      </c>
+      <c r="G27">
+        <v>23.651585300000001</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2034</v>
+      </c>
+      <c r="B28">
+        <v>8875</v>
+      </c>
+      <c r="C28">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>6.84544</v>
+      </c>
+      <c r="F28">
+        <v>1.856311209</v>
+      </c>
+      <c r="G28">
+        <v>23.769413579999998</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2035</v>
+      </c>
+      <c r="B29">
+        <v>8875</v>
+      </c>
+      <c r="C29">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>6.84544</v>
+      </c>
+      <c r="F29">
+        <v>1.856311209</v>
+      </c>
+      <c r="G29">
+        <v>23.880630870000001</v>
+      </c>
+      <c r="H29">
+        <v>33</v>
+      </c>
+      <c r="I29">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>15.3</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2036</v>
+      </c>
+      <c r="B30">
+        <v>8875</v>
+      </c>
+      <c r="C30">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30">
+        <v>6.84544</v>
+      </c>
+      <c r="F30">
+        <v>1.856311209</v>
+      </c>
+      <c r="G30">
+        <v>23.985965879999998</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2037</v>
+      </c>
+      <c r="B31">
+        <v>8875</v>
+      </c>
+      <c r="C31">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+      <c r="E31">
+        <v>6.84544</v>
+      </c>
+      <c r="F31">
+        <v>1.856311209</v>
+      </c>
+      <c r="G31">
+        <v>24.08603183</v>
+      </c>
+      <c r="H31">
+        <v>33</v>
+      </c>
+      <c r="I31">
+        <v>38</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2038</v>
+      </c>
+      <c r="B32">
+        <v>8875</v>
+      </c>
+      <c r="C32">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+      <c r="E32">
+        <v>6.84544</v>
+      </c>
+      <c r="F32">
+        <v>1.856311209</v>
+      </c>
+      <c r="G32">
+        <v>24.181349740000002</v>
+      </c>
+      <c r="H32">
+        <v>33</v>
+      </c>
+      <c r="I32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2039</v>
+      </c>
+      <c r="B33">
+        <v>8875</v>
+      </c>
+      <c r="C33">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33">
+        <v>6.84544</v>
+      </c>
+      <c r="F33">
+        <v>1.856311209</v>
+      </c>
+      <c r="G33">
+        <v>24.272366120000001</v>
+      </c>
+      <c r="H33">
+        <v>33</v>
+      </c>
+      <c r="I33">
+        <v>38</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2040</v>
+      </c>
+      <c r="B34">
+        <v>8875</v>
+      </c>
+      <c r="C34">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+      <c r="E34">
+        <v>6.84544</v>
+      </c>
+      <c r="F34">
+        <v>1.856311209</v>
+      </c>
+      <c r="G34">
+        <v>24.359466650000002</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>15.3</v>
+      </c>
+      <c r="L34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2041</v>
+      </c>
+      <c r="B35">
+        <v>8875</v>
+      </c>
+      <c r="C35">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+      <c r="E35">
+        <v>6.84544</v>
+      </c>
+      <c r="F35">
+        <v>1.856311209</v>
+      </c>
+      <c r="G35">
+        <v>24.442986730000001</v>
+      </c>
+      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2042</v>
+      </c>
+      <c r="B36">
+        <v>8875</v>
+      </c>
+      <c r="C36">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+      <c r="E36">
+        <v>6.84544</v>
+      </c>
+      <c r="F36">
+        <v>1.856311209</v>
+      </c>
+      <c r="G36">
+        <v>24.523219999999998</v>
+      </c>
+      <c r="H36">
+        <v>33</v>
+      </c>
+      <c r="I36">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
+      </c>
+      <c r="K36">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2043</v>
+      </c>
+      <c r="B37">
+        <v>8875</v>
+      </c>
+      <c r="C37">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+      <c r="E37">
+        <v>6.84544</v>
+      </c>
+      <c r="F37">
+        <v>1.856311209</v>
+      </c>
+      <c r="G37">
+        <v>24.600424960000002</v>
+      </c>
+      <c r="H37">
+        <v>33</v>
+      </c>
+      <c r="I37">
+        <v>38</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2044</v>
+      </c>
+      <c r="B38">
+        <v>8875</v>
+      </c>
+      <c r="C38">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D38">
+        <v>1000</v>
+      </c>
+      <c r="E38">
+        <v>6.84544</v>
+      </c>
+      <c r="F38">
+        <v>1.856311209</v>
+      </c>
+      <c r="G38">
+        <v>24.674830409999998</v>
+      </c>
+      <c r="H38">
+        <v>33</v>
+      </c>
+      <c r="I38">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2045</v>
+      </c>
+      <c r="B39">
+        <v>8875</v>
+      </c>
+      <c r="C39">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+      <c r="E39">
+        <v>6.84544</v>
+      </c>
+      <c r="F39">
+        <v>1.856311209</v>
+      </c>
+      <c r="G39">
+        <v>24.746639890000001</v>
+      </c>
+      <c r="H39">
+        <v>33</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>15.3</v>
+      </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2046</v>
+      </c>
+      <c r="B40">
+        <v>8875</v>
+      </c>
+      <c r="C40">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D40">
+        <v>1000</v>
+      </c>
+      <c r="E40">
+        <v>6.84544</v>
+      </c>
+      <c r="F40">
+        <v>1.856311209</v>
+      </c>
+      <c r="G40">
+        <v>24.816035240000001</v>
+      </c>
+      <c r="H40">
+        <v>33</v>
+      </c>
+      <c r="I40">
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2047</v>
+      </c>
+      <c r="B41">
+        <v>8875</v>
+      </c>
+      <c r="C41">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41">
+        <v>6.84544</v>
+      </c>
+      <c r="F41">
+        <v>1.856311209</v>
+      </c>
+      <c r="G41">
+        <v>24.88317962</v>
+      </c>
+      <c r="H41">
+        <v>33</v>
+      </c>
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2048</v>
+      </c>
+      <c r="B42">
+        <v>8875</v>
+      </c>
+      <c r="C42">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+      <c r="E42">
+        <v>6.84544</v>
+      </c>
+      <c r="F42">
+        <v>1.856311209</v>
+      </c>
+      <c r="G42">
+        <v>24.94822001</v>
+      </c>
+      <c r="H42">
+        <v>33</v>
+      </c>
+      <c r="I42">
+        <v>38</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2049</v>
+      </c>
+      <c r="B43">
+        <v>8875</v>
+      </c>
+      <c r="C43">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+      <c r="E43">
+        <v>6.84544</v>
+      </c>
+      <c r="F43">
+        <v>1.856311209</v>
+      </c>
+      <c r="G43">
+        <v>25.011289269999999</v>
+      </c>
+      <c r="H43">
+        <v>33</v>
+      </c>
+      <c r="I43">
+        <v>38</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2050</v>
+      </c>
+      <c r="B44">
+        <v>8875</v>
+      </c>
+      <c r="C44">
+        <v>314.29854999999998</v>
+      </c>
+      <c r="D44">
+        <v>1000</v>
+      </c>
+      <c r="E44">
+        <v>6.84544</v>
+      </c>
+      <c r="F44">
+        <v>1.856311209</v>
+      </c>
+      <c r="G44">
+        <v>25.072507909999999</v>
+      </c>
+      <c r="H44">
+        <v>33</v>
+      </c>
+      <c r="I44">
+        <v>38</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>15.3</v>
+      </c>
+      <c r="L44">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" display="https://doi.org/10.1016/j.resconrec.2020.105145" xr:uid="{600CFAA9-3DFB-42AD-A445-A4B5AA1290BE}"/>
+    <hyperlink ref="L1" r:id="rId2" display="https://doi.org/10.2172/1561525" xr:uid="{D097713C-7BEA-4FA1-9B9F-78A40BE50501}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0188699D-EC8B-4A24-8D21-3FBF9C878E79}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11586,19 +18293,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -11618,13 +18325,16 @@
         <v>2009</v>
       </c>
       <c r="B3">
-        <v>8000</v>
+        <f>'mass per m2'!B3/1000</f>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <f>'mass per m2'!D3/1000</f>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>5.3760000000000003</v>
@@ -11650,13 +18360,16 @@
         <v>2010</v>
       </c>
       <c r="B4">
-        <v>8000</v>
+        <f>'mass per m2'!B4/1000</f>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <f>'mass per m2'!D4/1000</f>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>5.3760000000000003</v>
@@ -11682,13 +18395,16 @@
         <v>2011</v>
       </c>
       <c r="B5">
-        <v>8000</v>
+        <f>'mass per m2'!B5/1000</f>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <f>'mass per m2'!D5/1000</f>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>5.3760000000000003</v>
@@ -11714,13 +18430,16 @@
         <v>2012</v>
       </c>
       <c r="B6">
-        <v>8000</v>
+        <f>'mass per m2'!B6/1000</f>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <f>'mass per m2'!D6/1000</f>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>5.3760000000000003</v>
@@ -11746,13 +18465,16 @@
         <v>2013</v>
       </c>
       <c r="B7">
-        <v>8160</v>
+        <f>'mass per m2'!B7/1000</f>
+        <v>8.16</v>
       </c>
       <c r="C7">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <f>'mass per m2'!D7/1000</f>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>5.3760000000000003</v>
@@ -11778,13 +18500,16 @@
         <v>2014</v>
       </c>
       <c r="B8">
-        <v>8320</v>
+        <f>'mass per m2'!B8/1000</f>
+        <v>8.32</v>
       </c>
       <c r="C8">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <f>'mass per m2'!D8/1000</f>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>5.3760000000000003</v>
@@ -11810,13 +18535,16 @@
         <v>2015</v>
       </c>
       <c r="B9">
-        <v>8280</v>
+        <f>'mass per m2'!B9/1000</f>
+        <v>8.2799999999999994</v>
       </c>
       <c r="C9">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <f>'mass per m2'!D9/1000</f>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>5.7881600000000004</v>
@@ -11842,13 +18570,16 @@
         <v>2016</v>
       </c>
       <c r="B10">
-        <v>8240</v>
+        <f>'mass per m2'!B10/1000</f>
+        <v>8.24</v>
       </c>
       <c r="C10">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <f>'mass per m2'!D10/1000</f>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>6.2003199999999996</v>
@@ -11874,13 +18605,16 @@
         <v>2017</v>
       </c>
       <c r="B11">
-        <v>8225</v>
+        <f>'mass per m2'!B11/1000</f>
+        <v>8.2249999999999996</v>
       </c>
       <c r="C11">
-        <v>419.22</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <f>'mass per m2'!D11/1000</f>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>7.2038399999999996</v>
@@ -11906,13 +18640,16 @@
         <v>2018</v>
       </c>
       <c r="B12">
-        <v>8750</v>
+        <f>'mass per m2'!B12/1000</f>
+        <v>8.75</v>
       </c>
       <c r="C12">
-        <v>410.85500830000001</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <f>'mass per m2'!D12/1000</f>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>7.45472</v>
@@ -11938,13 +18675,16 @@
         <v>2019</v>
       </c>
       <c r="B13">
-        <v>8800</v>
+        <f>'mass per m2'!B13/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C13">
-        <v>402.1406667</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <f>'mass per m2'!D13/1000</f>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>8.26112</v>
@@ -11970,13 +18710,16 @@
         <v>2020</v>
       </c>
       <c r="B14">
-        <v>8800</v>
+        <f>'mass per m2'!B14/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C14">
-        <v>380.05398330000003</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <f>'mass per m2'!D14/1000</f>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>8.2252799999999997</v>
@@ -12002,13 +18745,16 @@
         <v>2021</v>
       </c>
       <c r="B15">
-        <v>8800</v>
+        <f>'mass per m2'!B15/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C15">
-        <v>367.38034160000001</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <f>'mass per m2'!D15/1000</f>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>8.2700800000000001</v>
@@ -12034,13 +18780,16 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>8800</v>
+        <f>'mass per m2'!B16/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C16">
-        <v>354.70670000000001</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <f>'mass per m2'!D16/1000</f>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>8.3148800000000005</v>
@@ -12066,13 +18815,16 @@
         <v>2023</v>
       </c>
       <c r="B17">
-        <v>8800</v>
+        <f>'mass per m2'!B17/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C17">
-        <v>348.49603339999999</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <f>'mass per m2'!D17/1000</f>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>8.3865599999999993</v>
@@ -12098,13 +18850,16 @@
         <v>2024</v>
       </c>
       <c r="B18">
-        <v>8800</v>
+        <f>'mass per m2'!B18/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C18">
-        <v>342.2853667</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <f>'mass per m2'!D18/1000</f>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>8.45824</v>
@@ -12130,13 +18885,16 @@
         <v>2025</v>
       </c>
       <c r="B19">
-        <v>8800</v>
+        <f>'mass per m2'!B19/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C19">
-        <v>336.01129950000001</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <f>'mass per m2'!D19/1000</f>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>8.1954133329999994</v>
@@ -12162,13 +18920,16 @@
         <v>2026</v>
       </c>
       <c r="B20">
-        <v>8800</v>
+        <f>'mass per m2'!B20/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C20">
-        <v>329.73723219999999</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <f>'mass per m2'!D20/1000</f>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>7.9325866669999998</v>
@@ -12194,13 +18955,16 @@
         <v>2027</v>
       </c>
       <c r="B21">
-        <v>8800</v>
+        <f>'mass per m2'!B21/1000</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C21">
-        <v>323.463165</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <f>'mass per m2'!D21/1000</f>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>7.6697600000000001</v>
@@ -12226,13 +18990,16 @@
         <v>2028</v>
       </c>
       <c r="B22">
-        <v>8875</v>
+        <f>'mass per m2'!B22/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C22">
-        <v>320.40829330000003</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <f>'mass per m2'!D22/1000</f>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>7.3949866670000004</v>
@@ -12258,13 +19025,16 @@
         <v>2029</v>
       </c>
       <c r="B23">
-        <v>8875</v>
+        <f>'mass per m2'!B23/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C23">
-        <v>317.35342170000001</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <f>'mass per m2'!D23/1000</f>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>7.1202133329999997</v>
@@ -12290,13 +19060,16 @@
         <v>2030</v>
       </c>
       <c r="B24">
-        <v>8875</v>
+        <f>'mass per m2'!B24/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C24">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <f>'mass per m2'!D24/1000</f>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>6.84544</v>
@@ -12322,13 +19095,16 @@
         <v>2031</v>
       </c>
       <c r="B25">
-        <v>8875</v>
+        <f>'mass per m2'!B25/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C25">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <f>'mass per m2'!D25/1000</f>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>6.84544</v>
@@ -12354,13 +19130,16 @@
         <v>2032</v>
       </c>
       <c r="B26">
-        <v>8875</v>
+        <f>'mass per m2'!B26/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C26">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <f>'mass per m2'!D26/1000</f>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>6.84544</v>
@@ -12386,13 +19165,16 @@
         <v>2033</v>
       </c>
       <c r="B27">
-        <v>8875</v>
+        <f>'mass per m2'!B27/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C27">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <f>'mass per m2'!D27/1000</f>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>6.84544</v>
@@ -12418,13 +19200,16 @@
         <v>2034</v>
       </c>
       <c r="B28">
-        <v>8875</v>
+        <f>'mass per m2'!B28/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C28">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D28">
-        <v>1000</v>
+        <f>'mass per m2'!D28/1000</f>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>6.84544</v>
@@ -12450,13 +19235,16 @@
         <v>2035</v>
       </c>
       <c r="B29">
-        <v>8875</v>
+        <f>'mass per m2'!B29/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C29">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D29">
-        <v>1000</v>
+        <f>'mass per m2'!D29/1000</f>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>6.84544</v>
@@ -12482,13 +19270,16 @@
         <v>2036</v>
       </c>
       <c r="B30">
-        <v>8875</v>
+        <f>'mass per m2'!B30/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C30">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D30">
-        <v>1000</v>
+        <f>'mass per m2'!D30/1000</f>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>6.84544</v>
@@ -12514,13 +19305,16 @@
         <v>2037</v>
       </c>
       <c r="B31">
-        <v>8875</v>
+        <f>'mass per m2'!B31/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C31">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <f>'mass per m2'!D31/1000</f>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>6.84544</v>
@@ -12546,13 +19340,16 @@
         <v>2038</v>
       </c>
       <c r="B32">
-        <v>8875</v>
+        <f>'mass per m2'!B32/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C32">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D32">
-        <v>1000</v>
+        <f>'mass per m2'!D32/1000</f>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>6.84544</v>
@@ -12578,13 +19375,16 @@
         <v>2039</v>
       </c>
       <c r="B33">
-        <v>8875</v>
+        <f>'mass per m2'!B33/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C33">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D33">
-        <v>1000</v>
+        <f>'mass per m2'!D33/1000</f>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>6.84544</v>
@@ -12610,13 +19410,16 @@
         <v>2040</v>
       </c>
       <c r="B34">
-        <v>8875</v>
+        <f>'mass per m2'!B34/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C34">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D34">
-        <v>1000</v>
+        <f>'mass per m2'!D34/1000</f>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>6.84544</v>
@@ -12642,13 +19445,16 @@
         <v>2041</v>
       </c>
       <c r="B35">
-        <v>8875</v>
+        <f>'mass per m2'!B35/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C35">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D35">
-        <v>1000</v>
+        <f>'mass per m2'!D35/1000</f>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>6.84544</v>
@@ -12674,13 +19480,16 @@
         <v>2042</v>
       </c>
       <c r="B36">
-        <v>8875</v>
+        <f>'mass per m2'!B36/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C36">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D36">
-        <v>1000</v>
+        <f>'mass per m2'!D36/1000</f>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>6.84544</v>
@@ -12706,13 +19515,16 @@
         <v>2043</v>
       </c>
       <c r="B37">
-        <v>8875</v>
+        <f>'mass per m2'!B37/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C37">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D37">
-        <v>1000</v>
+        <f>'mass per m2'!D37/1000</f>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>6.84544</v>
@@ -12738,13 +19550,16 @@
         <v>2044</v>
       </c>
       <c r="B38">
-        <v>8875</v>
+        <f>'mass per m2'!B38/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C38">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D38">
-        <v>1000</v>
+        <f>'mass per m2'!D38/1000</f>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>6.84544</v>
@@ -12770,13 +19585,16 @@
         <v>2045</v>
       </c>
       <c r="B39">
-        <v>8875</v>
+        <f>'mass per m2'!B39/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C39">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D39">
-        <v>1000</v>
+        <f>'mass per m2'!D39/1000</f>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>6.84544</v>
@@ -12802,13 +19620,16 @@
         <v>2046</v>
       </c>
       <c r="B40">
-        <v>8875</v>
+        <f>'mass per m2'!B40/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C40">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D40">
-        <v>1000</v>
+        <f>'mass per m2'!D40/1000</f>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>6.84544</v>
@@ -12834,13 +19655,16 @@
         <v>2047</v>
       </c>
       <c r="B41">
-        <v>8875</v>
+        <f>'mass per m2'!B41/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C41">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D41">
-        <v>1000</v>
+        <f>'mass per m2'!D41/1000</f>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>6.84544</v>
@@ -12866,13 +19690,16 @@
         <v>2048</v>
       </c>
       <c r="B42">
-        <v>8875</v>
+        <f>'mass per m2'!B42/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C42">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D42">
-        <v>1000</v>
+        <f>'mass per m2'!D42/1000</f>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>6.84544</v>
@@ -12898,13 +19725,16 @@
         <v>2049</v>
       </c>
       <c r="B43">
-        <v>8875</v>
+        <f>'mass per m2'!B43/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C43">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D43">
-        <v>1000</v>
+        <f>'mass per m2'!D43/1000</f>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>6.84544</v>
@@ -12930,13 +19760,16 @@
         <v>2050</v>
       </c>
       <c r="B44">
-        <v>8875</v>
+        <f>'mass per m2'!B44/1000</f>
+        <v>8.875</v>
       </c>
       <c r="C44">
-        <v>314.29854999999998</v>
+        <f>'mass per m2'!$C$3/100</f>
+        <v>4.1922000000000006</v>
       </c>
       <c r="D44">
-        <v>1000</v>
+        <f>'mass per m2'!D44/1000</f>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>6.84544</v>
@@ -12967,1541 +19800,877 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0188699D-EC8B-4A24-8D21-3FBF9C878E79}">
-  <dimension ref="A1:J44"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886825C-AE4A-4EAF-970C-700F7CC3D78A}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>31.313555950000001</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B3">
-        <f>Sheet1!B3/1000</f>
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>49.33536239</v>
       </c>
       <c r="D3">
-        <f>Sheet1!D3/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>5.3760000000000003</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>25.6</v>
-      </c>
-      <c r="G3">
-        <v>14.57777778</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>0.6</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B4">
-        <f>Sheet1!B4/1000</f>
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>49.661818310000001</v>
       </c>
       <c r="D4">
-        <f>Sheet1!D4/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>5.3760000000000003</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>12.327416169999999</v>
-      </c>
-      <c r="G4">
-        <v>14.7</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B5">
-        <f>Sheet1!B5/1000</f>
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>48.63711241</v>
       </c>
       <c r="D5">
-        <f>Sheet1!D5/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>5.3760000000000003</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>10.272846810000001</v>
-      </c>
-      <c r="G5">
-        <v>15.1</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B6">
-        <f>Sheet1!B6/1000</f>
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>49.920500959999998</v>
       </c>
       <c r="D6">
-        <f>Sheet1!D6/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>5.3760000000000003</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>8.2182774490000003</v>
-      </c>
-      <c r="G6">
-        <v>15.4</v>
-      </c>
-      <c r="H6">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <f>Sheet1!B7/1000</f>
-        <v>8.16</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>50.133176429999999</v>
       </c>
       <c r="D7">
-        <f>Sheet1!D7/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>5.3760000000000003</v>
+        <v>90</v>
       </c>
       <c r="F7">
-        <v>5.7527942139999997</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>28</v>
-      </c>
-      <c r="I7">
-        <v>33</v>
-      </c>
-      <c r="J7">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B8">
-        <f>Sheet1!B8/1000</f>
-        <v>8.32</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>50.540356459999998</v>
       </c>
       <c r="D8">
-        <f>Sheet1!D8/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>5.3760000000000003</v>
+        <v>90</v>
       </c>
       <c r="F8">
-        <v>5.3418803419999996</v>
-      </c>
-      <c r="G8">
-        <v>16.3</v>
-      </c>
-      <c r="H8">
-        <v>28</v>
-      </c>
-      <c r="I8">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9">
-        <f>Sheet1!B9/1000</f>
-        <v>8.2799999999999994</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>53.417000399999999</v>
       </c>
       <c r="D9">
-        <f>Sheet1!D9/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>5.7881600000000004</v>
+        <v>90</v>
       </c>
       <c r="F9">
-        <v>4.5200525970000003</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>28</v>
-      </c>
-      <c r="I9">
-        <v>33</v>
-      </c>
-      <c r="J9">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10">
-        <f>Sheet1!B10/1000</f>
-        <v>8.24</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>59.32333715</v>
       </c>
       <c r="D10">
-        <f>Sheet1!D10/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>6.2003199999999996</v>
+        <v>90</v>
       </c>
       <c r="F10">
-        <v>4.0997570090000002</v>
-      </c>
-      <c r="G10">
-        <v>17.5</v>
-      </c>
-      <c r="H10">
-        <v>28</v>
-      </c>
-      <c r="I10">
-        <v>33</v>
-      </c>
-      <c r="J10">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B11">
-        <f>Sheet1!B11/1000</f>
-        <v>8.2249999999999996</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>63.600552669999999</v>
       </c>
       <c r="D11">
-        <f>Sheet1!D11/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>7.2038399999999996</v>
+        <v>90</v>
       </c>
       <c r="F11">
-        <v>4.079110301</v>
-      </c>
-      <c r="G11">
-        <v>17.7</v>
-      </c>
-      <c r="H11">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>33</v>
-      </c>
-      <c r="J11">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B12">
-        <f>Sheet1!B12/1000</f>
-        <v>8.75</v>
+        <v>82</v>
       </c>
       <c r="C12">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>65.063940110000004</v>
       </c>
       <c r="D12">
-        <f>Sheet1!D12/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>7.45472</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>4.3128338230000001</v>
-      </c>
-      <c r="G12">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H12">
-        <v>28</v>
-      </c>
-      <c r="I12">
-        <v>33</v>
-      </c>
-      <c r="J12">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B13">
-        <f>Sheet1!B13/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C13">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>66.726759759999993</v>
       </c>
       <c r="D13">
-        <f>Sheet1!D13/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>8.26112</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>4.1473098100000003</v>
-      </c>
-      <c r="G13">
-        <v>19.2</v>
-      </c>
-      <c r="H13">
-        <v>28</v>
-      </c>
-      <c r="I13">
-        <v>33</v>
-      </c>
-      <c r="J13">
-        <v>0.3</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14">
-        <f>Sheet1!B14/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C14">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>66.180844960000002</v>
       </c>
       <c r="D14">
-        <f>Sheet1!D14/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>8.2252799999999997</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>3.5949654450000001</v>
-      </c>
-      <c r="G14">
-        <v>20.252588490000001</v>
-      </c>
-      <c r="H14">
-        <v>33</v>
-      </c>
-      <c r="I14">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B15">
-        <f>Sheet1!B15/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>65.587672920000003</v>
       </c>
       <c r="D15">
-        <f>Sheet1!D15/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>8.2700800000000001</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>3.3412788689999999</v>
-      </c>
-      <c r="G15">
-        <v>20.894864800000001</v>
-      </c>
-      <c r="H15">
-        <v>33</v>
-      </c>
-      <c r="I15">
-        <v>38</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16">
-        <f>Sheet1!B16/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C16">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>66.98371616</v>
       </c>
       <c r="D16">
-        <f>Sheet1!D16/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>8.3148800000000005</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>3.0936340219999998</v>
-      </c>
-      <c r="G16">
-        <v>21.362882320000001</v>
-      </c>
-      <c r="H16">
-        <v>33</v>
-      </c>
-      <c r="I16">
-        <v>38</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B17">
-        <f>Sheet1!B17/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C17">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>68.784939679999994</v>
       </c>
       <c r="D17">
-        <f>Sheet1!D17/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>8.3865599999999993</v>
+        <v>90</v>
       </c>
       <c r="F17">
-        <v>2.8988638820000001</v>
-      </c>
-      <c r="G17">
-        <v>21.733112049999999</v>
-      </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
-      <c r="I17">
-        <v>38</v>
-      </c>
-      <c r="J17">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B18">
-        <f>Sheet1!B18/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C18">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>69.379740209999994</v>
       </c>
       <c r="D18">
-        <f>Sheet1!D18/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>8.45824</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>2.692895407</v>
-      </c>
-      <c r="G18">
-        <v>22.040369699999999</v>
-      </c>
-      <c r="H18">
-        <v>33</v>
-      </c>
-      <c r="I18">
-        <v>38</v>
-      </c>
-      <c r="J18">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B19">
-        <f>Sheet1!B19/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C19">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>69.848360650000004</v>
       </c>
       <c r="D19">
-        <f>Sheet1!D19/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>8.1954133329999994</v>
+        <v>90</v>
       </c>
       <c r="F19">
-        <v>2.542951049</v>
-      </c>
-      <c r="G19">
-        <v>22.303538889999999</v>
-      </c>
-      <c r="H19">
-        <v>33</v>
-      </c>
-      <c r="I19">
-        <v>38</v>
-      </c>
-      <c r="J19">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B20">
-        <f>Sheet1!B20/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C20">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>70.190564620000004</v>
       </c>
       <c r="D20">
-        <f>Sheet1!D20/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>7.9325866669999998</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>2.4012622069999998</v>
-      </c>
-      <c r="G20">
-        <v>22.534045020000001</v>
-      </c>
-      <c r="H20">
-        <v>33</v>
-      </c>
-      <c r="I20">
-        <v>38</v>
-      </c>
-      <c r="J20">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B21">
-        <f>Sheet1!B21/1000</f>
-        <v>8.8000000000000007</v>
+        <v>83</v>
       </c>
       <c r="C21">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>70.655697110000006</v>
       </c>
       <c r="D21">
-        <f>Sheet1!D21/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>7.6697600000000001</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>2.2668844890000002</v>
-      </c>
-      <c r="G21">
-        <v>22.739342440000001</v>
-      </c>
-      <c r="H21">
-        <v>33</v>
-      </c>
-      <c r="I21">
-        <v>38</v>
-      </c>
-      <c r="J21">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B22">
-        <f>Sheet1!B22/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C22">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.125574380000003</v>
       </c>
       <c r="D22">
-        <f>Sheet1!D22/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>7.3949866670000004</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>2.1296348279999999</v>
-      </c>
-      <c r="G22">
-        <v>22.924571610000001</v>
-      </c>
-      <c r="H22">
-        <v>33</v>
-      </c>
-      <c r="I22">
-        <v>38</v>
-      </c>
-      <c r="J22">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B23">
-        <f>Sheet1!B23/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C23">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D23">
-        <f>Sheet1!D23/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>7.1202133329999997</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>1.9927764130000001</v>
-      </c>
-      <c r="G23">
-        <v>23.093431240000001</v>
-      </c>
-      <c r="H23">
-        <v>33</v>
-      </c>
-      <c r="I23">
-        <v>38</v>
-      </c>
-      <c r="J23">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B24">
-        <f>Sheet1!B24/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C24">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D24">
-        <f>Sheet1!D24/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F24">
-        <v>1.856311209</v>
-      </c>
-      <c r="G24">
-        <v>23.248673839999999</v>
-      </c>
-      <c r="H24">
-        <v>33</v>
-      </c>
-      <c r="I24">
-        <v>38</v>
-      </c>
-      <c r="J24">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B25">
-        <f>Sheet1!B25/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C25">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D25">
-        <f>Sheet1!D25/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F25">
-        <v>1.856311209</v>
-      </c>
-      <c r="G25">
-        <v>23.392404590000002</v>
-      </c>
-      <c r="H25">
-        <v>33</v>
-      </c>
-      <c r="I25">
-        <v>38</v>
-      </c>
-      <c r="J25">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B26">
-        <f>Sheet1!B26/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C26">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D26">
-        <f>Sheet1!D26/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E26">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F26">
-        <v>1.856311209</v>
-      </c>
-      <c r="G26">
-        <v>23.526270570000001</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>38</v>
-      </c>
-      <c r="J26">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B27">
-        <f>Sheet1!B27/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C27">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D27">
-        <f>Sheet1!D27/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F27">
-        <v>1.856311209</v>
-      </c>
-      <c r="G27">
-        <v>23.651585300000001</v>
-      </c>
-      <c r="H27">
-        <v>33</v>
-      </c>
-      <c r="I27">
-        <v>38</v>
-      </c>
-      <c r="J27">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B28">
-        <f>Sheet1!B28/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C28">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D28">
-        <f>Sheet1!D28/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F28">
-        <v>1.856311209</v>
-      </c>
-      <c r="G28">
-        <v>23.769413579999998</v>
-      </c>
-      <c r="H28">
-        <v>33</v>
-      </c>
-      <c r="I28">
-        <v>38</v>
-      </c>
-      <c r="J28">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B29">
-        <f>Sheet1!B29/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C29">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D29">
-        <f>Sheet1!D29/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F29">
-        <v>1.856311209</v>
-      </c>
-      <c r="G29">
-        <v>23.880630870000001</v>
-      </c>
-      <c r="H29">
-        <v>33</v>
-      </c>
-      <c r="I29">
-        <v>38</v>
-      </c>
-      <c r="J29">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B30">
-        <f>Sheet1!B30/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C30">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D30">
-        <f>Sheet1!D30/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F30">
-        <v>1.856311209</v>
-      </c>
-      <c r="G30">
-        <v>23.985965879999998</v>
-      </c>
-      <c r="H30">
-        <v>33</v>
-      </c>
-      <c r="I30">
-        <v>38</v>
-      </c>
-      <c r="J30">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B31">
-        <f>Sheet1!B31/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C31">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D31">
-        <f>Sheet1!D31/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E31">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F31">
-        <v>1.856311209</v>
-      </c>
-      <c r="G31">
-        <v>24.08603183</v>
-      </c>
-      <c r="H31">
-        <v>33</v>
-      </c>
-      <c r="I31">
-        <v>38</v>
-      </c>
-      <c r="J31">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B32">
-        <f>Sheet1!B32/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C32">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D32">
-        <f>Sheet1!D32/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F32">
-        <v>1.856311209</v>
-      </c>
-      <c r="G32">
-        <v>24.181349740000002</v>
-      </c>
-      <c r="H32">
-        <v>33</v>
-      </c>
-      <c r="I32">
-        <v>38</v>
-      </c>
-      <c r="J32">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B33">
-        <f>Sheet1!B33/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C33">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D33">
-        <f>Sheet1!D33/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E33">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F33">
-        <v>1.856311209</v>
-      </c>
-      <c r="G33">
-        <v>24.272366120000001</v>
-      </c>
-      <c r="H33">
-        <v>33</v>
-      </c>
-      <c r="I33">
-        <v>38</v>
-      </c>
-      <c r="J33">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B34">
-        <f>Sheet1!B34/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C34">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D34">
-        <f>Sheet1!D34/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F34">
-        <v>1.856311209</v>
-      </c>
-      <c r="G34">
-        <v>24.359466650000002</v>
-      </c>
-      <c r="H34">
-        <v>33</v>
-      </c>
-      <c r="I34">
-        <v>38</v>
-      </c>
-      <c r="J34">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B35">
-        <f>Sheet1!B35/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C35">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D35">
-        <f>Sheet1!D35/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E35">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F35">
-        <v>1.856311209</v>
-      </c>
-      <c r="G35">
-        <v>24.442986730000001</v>
-      </c>
-      <c r="H35">
-        <v>33</v>
-      </c>
-      <c r="I35">
-        <v>38</v>
-      </c>
-      <c r="J35">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B36">
-        <f>Sheet1!B36/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C36">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D36">
-        <f>Sheet1!D36/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E36">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F36">
-        <v>1.856311209</v>
-      </c>
-      <c r="G36">
-        <v>24.523219999999998</v>
-      </c>
-      <c r="H36">
-        <v>33</v>
-      </c>
-      <c r="I36">
-        <v>38</v>
-      </c>
-      <c r="J36">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B37">
-        <f>Sheet1!B37/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C37">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D37">
-        <f>Sheet1!D37/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E37">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F37">
-        <v>1.856311209</v>
-      </c>
-      <c r="G37">
-        <v>24.600424960000002</v>
-      </c>
-      <c r="H37">
-        <v>33</v>
-      </c>
-      <c r="I37">
-        <v>38</v>
-      </c>
-      <c r="J37">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B38">
-        <f>Sheet1!B38/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D38">
-        <f>Sheet1!D38/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F38">
-        <v>1.856311209</v>
-      </c>
-      <c r="G38">
-        <v>24.674830409999998</v>
-      </c>
-      <c r="H38">
-        <v>33</v>
-      </c>
-      <c r="I38">
-        <v>38</v>
-      </c>
-      <c r="J38">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B39">
-        <f>Sheet1!B39/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C39">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D39">
-        <f>Sheet1!D39/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E39">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F39">
-        <v>1.856311209</v>
-      </c>
-      <c r="G39">
-        <v>24.746639890000001</v>
-      </c>
-      <c r="H39">
-        <v>33</v>
-      </c>
-      <c r="I39">
-        <v>38</v>
-      </c>
-      <c r="J39">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B40">
-        <f>Sheet1!B40/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C40">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D40">
-        <f>Sheet1!D40/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E40">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F40">
-        <v>1.856311209</v>
-      </c>
-      <c r="G40">
-        <v>24.816035240000001</v>
-      </c>
-      <c r="H40">
-        <v>33</v>
-      </c>
-      <c r="I40">
-        <v>38</v>
-      </c>
-      <c r="J40">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B41">
-        <f>Sheet1!B41/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C41">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D41">
-        <f>Sheet1!D41/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E41">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F41">
-        <v>1.856311209</v>
-      </c>
-      <c r="G41">
-        <v>24.88317962</v>
-      </c>
-      <c r="H41">
-        <v>33</v>
-      </c>
-      <c r="I41">
-        <v>38</v>
-      </c>
-      <c r="J41">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B42">
-        <f>Sheet1!B42/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C42">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D42">
-        <f>Sheet1!D42/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F42">
-        <v>1.856311209</v>
-      </c>
-      <c r="G42">
-        <v>24.94822001</v>
-      </c>
-      <c r="H42">
-        <v>33</v>
-      </c>
-      <c r="I42">
-        <v>38</v>
-      </c>
-      <c r="J42">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B43">
-        <f>Sheet1!B43/1000</f>
-        <v>8.875</v>
+        <v>83</v>
       </c>
       <c r="C43">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
+        <v>71.600236780000003</v>
       </c>
       <c r="D43">
-        <f>Sheet1!D43/1000</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E43">
-        <v>6.84544</v>
+        <v>90</v>
       </c>
       <c r="F43">
-        <v>1.856311209</v>
-      </c>
-      <c r="G43">
-        <v>25.011289269999999</v>
-      </c>
-      <c r="H43">
-        <v>33</v>
-      </c>
-      <c r="I43">
-        <v>38</v>
-      </c>
-      <c r="J43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2050</v>
-      </c>
-      <c r="B44">
-        <f>Sheet1!B44/1000</f>
-        <v>8.875</v>
-      </c>
-      <c r="C44">
-        <f>Sheet1!$C$3/100</f>
-        <v>4.1922000000000006</v>
-      </c>
-      <c r="D44">
-        <f>Sheet1!D44/1000</f>
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>6.84544</v>
-      </c>
-      <c r="F44">
-        <v>1.856311209</v>
-      </c>
-      <c r="G44">
-        <v>25.072507909999999</v>
-      </c>
-      <c r="H44">
-        <v>33</v>
-      </c>
-      <c r="I44">
-        <v>38</v>
-      </c>
-      <c r="J44">
-        <v>0.5</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\ReedsSubset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243771B8-0469-475F-B209-8474D698EC76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1163B67E-8CB1-4572-B3BE-49F7821B9ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
@@ -148,11 +148,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -161,6 +161,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD62728"/>
+      <color rgb="FF2CA02C"/>
+      <color rgb="FF1F77B4"/>
+      <color rgb="FFFF7F0E"/>
+      <color rgb="FF00BFBF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8569,64 +8578,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>PV Evolution: Mass per module area over time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2073786135382862E-2"/>
+          <c:y val="3.051149687266726E-2"/>
+          <c:w val="0.86475696867005547"/>
+          <c:h val="0.86151854039929188"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -8645,9 +8609,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00BFBF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8948,9 +8912,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="FF7F0E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9251,9 +9215,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="1F77B4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9554,9 +9518,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="2CA02C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9857,9 +9821,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="D62728"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10160,7 +10124,7 @@
         <c:axId val="664749616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2050"/>
+          <c:max val="2030"/>
           <c:min val="2010"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10187,10 +10151,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -10201,16 +10162,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -10243,20 +10201,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -10264,21 +10208,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Mass per Module m^2 (grams, hectograms, kilograms)</a:t>
+                  <a:t>Mass per m2 of module [grams | hectograms | kilograms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10296,16 +10237,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -10320,10 +10258,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -10334,16 +10269,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -10357,7 +10289,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -10368,10 +10302,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74745443739363815"/>
-          <c:y val="0.12459637902355944"/>
-          <c:w val="0.20939372499633777"/>
-          <c:h val="0.21855266196760129"/>
+          <c:x val="0.70057211203030001"/>
+          <c:y val="4.4953407888784415E-2"/>
+          <c:w val="0.24877489469934402"/>
+          <c:h val="0.26249354509180456"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10382,7 +10316,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -10393,16 +10327,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -10424,13 +10355,8 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10440,7 +10366,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -16681,8 +16614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7BEC5-C527-4A05-96EF-71A772E43E2F}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16691,23 +16624,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -18264,8 +18197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0188699D-EC8B-4A24-8D21-3FBF9C878E79}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18274,19 +18207,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -19804,7 +19737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886825C-AE4A-4EAF-970C-700F7CC3D78A}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>

--- a/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\ReedsSubset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1163B67E-8CB1-4572-B3BE-49F7821B9ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767BFBBB-52DC-4457-BD34-060497692186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
     <sheet name="all on one" sheetId="2" r:id="rId2"/>
     <sheet name="MFG Eff" sheetId="3" r:id="rId3"/>
+    <sheet name="SiliconMarketShareLitCompare" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Year</t>
   </si>
@@ -103,6 +104,54 @@
   <si>
     <t>Weckend, Stephanie, Andreas Wade, and Garvin A Heath. 2016. “End of Life Management: Solar Photovoltaic Panels.” NREL/TP-6A20-73852, 1561525. IRENA. https://doi.org/10.2172/1561525.</t>
   </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>PV_ICE_USA</t>
+  </si>
+  <si>
+    <t>(Global) P. Mints SPV Market Research 2019</t>
+  </si>
+  <si>
+    <t>(Global) Faunhofer ISE “Photovoltaics Report” 2020</t>
+  </si>
+  <si>
+    <t>(Global) Fraunhofer ISE “Photovoltaics Report” 2014</t>
+  </si>
+  <si>
+    <t>(USA) Dominguez and Geyer 2019</t>
+  </si>
+  <si>
+    <t>(USA) Mahmoudi et al 2020</t>
+  </si>
+  <si>
+    <t>(USA) M. A. Green 2006</t>
+  </si>
+  <si>
+    <t>(USA) IEA PVPS T1-1997</t>
+  </si>
+  <si>
+    <t>(USA) A. Goetzberger and C. Hebling 2000</t>
+  </si>
+  <si>
+    <t>(Global) IRENA 2016</t>
+  </si>
+  <si>
+    <t>(North America) CSA Group 2020</t>
+  </si>
+  <si>
+    <t>(USA) M. Bolinger et al 2019 [utility scale]</t>
+  </si>
 </sst>
 </file>
 
@@ -146,10 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,11 +215,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00BFBF"/>
+      <color rgb="FFFF7F0E"/>
       <color rgb="FFD62728"/>
       <color rgb="FF2CA02C"/>
       <color rgb="FF1F77B4"/>
-      <color rgb="FFFF7F0E"/>
-      <color rgb="FF00BFBF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -817,6 +870,1785 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12237024874260385"/>
+          <c:y val="3.0293108697248401E-2"/>
+          <c:w val="0.83091241556890694"/>
+          <c:h val="0.8655030373190693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00BFBF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$B$2:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C7-4FF0-BD24-3D6F355E3E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silicon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF7F0E"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$C$2:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>31.313555950000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.33536239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.661818310000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.63711241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.920500959999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.133176429999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.540356459999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.417000399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.32333715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.600552669999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.063940110000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.726759759999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.180844960000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.587672920000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.98371616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.784939679999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.379740209999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.848360650000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.190564620000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.655697110000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.125574380000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71.600236780000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76C7-4FF0-BD24-3D6F355E3E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aluminium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="1F77B4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$D$2:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76C7-4FF0-BD24-3D6F355E3E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="2CA02C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$E$2:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76C7-4FF0-BD24-3D6F355E3E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D62728"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$F$2:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-76C7-4FF0-BD24-3D6F355E3E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="644818312"/>
+        <c:axId val="644815360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="644818312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2030"/>
+          <c:min val="2010"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644815360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="644815360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="101"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Manufacturing Efficiency [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644818312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2618,6 +4450,3826 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Market Share Silicon PV, USA and Globally</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1060169235854953E-2"/>
+          <c:y val="6.4957243572431309E-2"/>
+          <c:w val="0.8842970862931655"/>
+          <c:h val="0.51337911927675706"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV_ICE_USA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$B$3:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.666666699999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.333333300000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.166666700000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.333333300000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.666666700000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.833333300000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.082000000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.245999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.327999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(USA) IEA PVPS T1-1997</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$E$3:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(USA) A. Goetzberger and C. Hebling 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$F$3:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(USA) M. A. Green 2006</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$D$3:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(USA) M. Bolinger et al 2019 [utility scale]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$C$3:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="14">
+                  <c:v>54.410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(USA) Mahmoudi et al 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$L$3:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(USA) Dominguez and Geyer 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$M$3:$M$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(North America) CSA Group 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$H$3:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Global) Fraunhofer ISE “Photovoltaics Report” 2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$K$3:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Global) IRENA 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$G$3:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Global) P. Mints SPV Market Research 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$I$3:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="13">
+                  <c:v>83.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SiliconMarketShareLitCompare!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Global) Faunhofer ISE “Photovoltaics Report” 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SiliconMarketShareLitCompare!$J$3:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3ABF-4B97-A841-5E7DFA7A6661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668485528"/>
+        <c:axId val="668493072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668485528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2020"/>
+          <c:min val="1995"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668493072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668493072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668485528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.231264673943941E-2"/>
+          <c:y val="0.64498629337999414"/>
+          <c:w val="0.58145446356542729"/>
+          <c:h val="0.3425912802566346"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -8585,10 +14237,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2073786135382862E-2"/>
+          <c:x val="0.12698413468732433"/>
           <c:y val="3.051149687266726E-2"/>
-          <c:w val="0.86475696867005547"/>
-          <c:h val="0.86151854039929188"/>
+          <c:w val="0.82777703634503319"/>
+          <c:h val="0.86975746844771684"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -10162,7 +15814,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -10177,6 +15829,7 @@
         <c:crossAx val="664746664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="664746664"/>
@@ -10208,7 +15861,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -10219,7 +15872,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Mass per m2 of module [grams | hectograms | kilograms]</a:t>
+                  <a:t>Mass per m2 of module </a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-US"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[grams | hectograms | kilograms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10237,7 +15897,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -10269,7 +15929,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -10302,9 +15962,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70057211203030001"/>
+          <c:x val="0.61839438020940762"/>
           <c:y val="4.4953407888784415E-2"/>
-          <c:w val="0.24877489469934402"/>
+          <c:w val="0.33095260627090334"/>
           <c:h val="0.26249354509180456"/>
         </c:manualLayout>
       </c:layout>
@@ -10327,7 +15987,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -10366,7 +16026,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1050">
+        <a:defRPr sz="1400">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -10433,6 +16093,83 @@
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -11806,6 +17543,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -15975,15 +22744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16161,16 +22930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16237,16 +23006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16266,6 +23035,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D37BDF-C052-4FD4-9799-E04CE356DA48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16295,6 +23102,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E988897-F802-414A-9CE7-B2FD9BCA1137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28649FE-1440-439C-8636-D89978D2CF5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16624,19 +23472,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
@@ -18195,33 +25043,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0188699D-EC8B-4A24-8D21-3FBF9C878E79}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18252,8 +25100,26 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -18287,8 +25153,26 @@
       <c r="J3">
         <v>0.6</v>
       </c>
+      <c r="AA3">
+        <v>2009</v>
+      </c>
+      <c r="AB3">
+        <v>77</v>
+      </c>
+      <c r="AC3">
+        <v>31.313555950000001</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>90</v>
+      </c>
+      <c r="AF3">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -18322,8 +25206,26 @@
       <c r="J4">
         <v>0.3</v>
       </c>
+      <c r="AA4">
+        <v>2010</v>
+      </c>
+      <c r="AB4">
+        <v>78</v>
+      </c>
+      <c r="AC4">
+        <v>49.33536239</v>
+      </c>
+      <c r="AD4">
+        <v>100</v>
+      </c>
+      <c r="AE4">
+        <v>90</v>
+      </c>
+      <c r="AF4">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -18357,8 +25259,26 @@
       <c r="J5">
         <v>0.3</v>
       </c>
+      <c r="AA5">
+        <v>2011</v>
+      </c>
+      <c r="AB5">
+        <v>78</v>
+      </c>
+      <c r="AC5">
+        <v>49.661818310000001</v>
+      </c>
+      <c r="AD5">
+        <v>100</v>
+      </c>
+      <c r="AE5">
+        <v>90</v>
+      </c>
+      <c r="AF5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -18392,8 +25312,26 @@
       <c r="J6">
         <v>0.3</v>
       </c>
+      <c r="AA6">
+        <v>2012</v>
+      </c>
+      <c r="AB6">
+        <v>78</v>
+      </c>
+      <c r="AC6">
+        <v>48.63711241</v>
+      </c>
+      <c r="AD6">
+        <v>100</v>
+      </c>
+      <c r="AE6">
+        <v>90</v>
+      </c>
+      <c r="AF6">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -18427,8 +25365,26 @@
       <c r="J7">
         <v>0.3</v>
       </c>
+      <c r="AA7">
+        <v>2013</v>
+      </c>
+      <c r="AB7">
+        <v>79</v>
+      </c>
+      <c r="AC7">
+        <v>49.920500959999998</v>
+      </c>
+      <c r="AD7">
+        <v>100</v>
+      </c>
+      <c r="AE7">
+        <v>90</v>
+      </c>
+      <c r="AF7">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -18462,8 +25418,26 @@
       <c r="J8">
         <v>0.3</v>
       </c>
+      <c r="AA8">
+        <v>2014</v>
+      </c>
+      <c r="AB8">
+        <v>79</v>
+      </c>
+      <c r="AC8">
+        <v>50.133176429999999</v>
+      </c>
+      <c r="AD8">
+        <v>100</v>
+      </c>
+      <c r="AE8">
+        <v>90</v>
+      </c>
+      <c r="AF8">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -18497,8 +25471,26 @@
       <c r="J9">
         <v>0.3</v>
       </c>
+      <c r="AA9">
+        <v>2015</v>
+      </c>
+      <c r="AB9">
+        <v>80</v>
+      </c>
+      <c r="AC9">
+        <v>50.540356459999998</v>
+      </c>
+      <c r="AD9">
+        <v>100</v>
+      </c>
+      <c r="AE9">
+        <v>90</v>
+      </c>
+      <c r="AF9">
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -18532,8 +25524,26 @@
       <c r="J10">
         <v>0.3</v>
       </c>
+      <c r="AA10">
+        <v>2016</v>
+      </c>
+      <c r="AB10">
+        <v>81</v>
+      </c>
+      <c r="AC10">
+        <v>53.417000399999999</v>
+      </c>
+      <c r="AD10">
+        <v>100</v>
+      </c>
+      <c r="AE10">
+        <v>90</v>
+      </c>
+      <c r="AF10">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -18567,8 +25577,26 @@
       <c r="J11">
         <v>0.3</v>
       </c>
+      <c r="AA11">
+        <v>2017</v>
+      </c>
+      <c r="AB11">
+        <v>82</v>
+      </c>
+      <c r="AC11">
+        <v>59.32333715</v>
+      </c>
+      <c r="AD11">
+        <v>100</v>
+      </c>
+      <c r="AE11">
+        <v>90</v>
+      </c>
+      <c r="AF11">
+        <v>80</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -18602,8 +25630,26 @@
       <c r="J12">
         <v>0.3</v>
       </c>
+      <c r="AA12">
+        <v>2018</v>
+      </c>
+      <c r="AB12">
+        <v>82</v>
+      </c>
+      <c r="AC12">
+        <v>63.600552669999999</v>
+      </c>
+      <c r="AD12">
+        <v>100</v>
+      </c>
+      <c r="AE12">
+        <v>90</v>
+      </c>
+      <c r="AF12">
+        <v>80</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -18637,8 +25683,26 @@
       <c r="J13">
         <v>0.3</v>
       </c>
+      <c r="AA13">
+        <v>2019</v>
+      </c>
+      <c r="AB13">
+        <v>82</v>
+      </c>
+      <c r="AC13">
+        <v>65.063940110000004</v>
+      </c>
+      <c r="AD13">
+        <v>100</v>
+      </c>
+      <c r="AE13">
+        <v>90</v>
+      </c>
+      <c r="AF13">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -18672,8 +25736,26 @@
       <c r="J14">
         <v>0.5</v>
       </c>
+      <c r="AA14">
+        <v>2020</v>
+      </c>
+      <c r="AB14">
+        <v>83</v>
+      </c>
+      <c r="AC14">
+        <v>66.726759759999993</v>
+      </c>
+      <c r="AD14">
+        <v>100</v>
+      </c>
+      <c r="AE14">
+        <v>90</v>
+      </c>
+      <c r="AF14">
+        <v>80</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -18707,8 +25789,26 @@
       <c r="J15">
         <v>0.5</v>
       </c>
+      <c r="AA15">
+        <v>2021</v>
+      </c>
+      <c r="AB15">
+        <v>83</v>
+      </c>
+      <c r="AC15">
+        <v>66.180844960000002</v>
+      </c>
+      <c r="AD15">
+        <v>100</v>
+      </c>
+      <c r="AE15">
+        <v>90</v>
+      </c>
+      <c r="AF15">
+        <v>80</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -18742,8 +25842,26 @@
       <c r="J16">
         <v>0.5</v>
       </c>
+      <c r="AA16">
+        <v>2022</v>
+      </c>
+      <c r="AB16">
+        <v>83</v>
+      </c>
+      <c r="AC16">
+        <v>65.587672920000003</v>
+      </c>
+      <c r="AD16">
+        <v>100</v>
+      </c>
+      <c r="AE16">
+        <v>90</v>
+      </c>
+      <c r="AF16">
+        <v>80</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -18777,8 +25895,26 @@
       <c r="J17">
         <v>0.5</v>
       </c>
+      <c r="AA17">
+        <v>2023</v>
+      </c>
+      <c r="AB17">
+        <v>83</v>
+      </c>
+      <c r="AC17">
+        <v>66.98371616</v>
+      </c>
+      <c r="AD17">
+        <v>100</v>
+      </c>
+      <c r="AE17">
+        <v>90</v>
+      </c>
+      <c r="AF17">
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2024</v>
       </c>
@@ -18812,8 +25948,26 @@
       <c r="J18">
         <v>0.5</v>
       </c>
+      <c r="AA18">
+        <v>2024</v>
+      </c>
+      <c r="AB18">
+        <v>83</v>
+      </c>
+      <c r="AC18">
+        <v>68.784939679999994</v>
+      </c>
+      <c r="AD18">
+        <v>100</v>
+      </c>
+      <c r="AE18">
+        <v>90</v>
+      </c>
+      <c r="AF18">
+        <v>80</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2025</v>
       </c>
@@ -18847,8 +26001,26 @@
       <c r="J19">
         <v>0.5</v>
       </c>
+      <c r="AA19">
+        <v>2025</v>
+      </c>
+      <c r="AB19">
+        <v>83</v>
+      </c>
+      <c r="AC19">
+        <v>69.379740209999994</v>
+      </c>
+      <c r="AD19">
+        <v>100</v>
+      </c>
+      <c r="AE19">
+        <v>90</v>
+      </c>
+      <c r="AF19">
+        <v>80</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2026</v>
       </c>
@@ -18882,8 +26054,26 @@
       <c r="J20">
         <v>0.5</v>
       </c>
+      <c r="AA20">
+        <v>2026</v>
+      </c>
+      <c r="AB20">
+        <v>83</v>
+      </c>
+      <c r="AC20">
+        <v>69.848360650000004</v>
+      </c>
+      <c r="AD20">
+        <v>100</v>
+      </c>
+      <c r="AE20">
+        <v>90</v>
+      </c>
+      <c r="AF20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2027</v>
       </c>
@@ -18917,8 +26107,26 @@
       <c r="J21">
         <v>0.5</v>
       </c>
+      <c r="AA21">
+        <v>2027</v>
+      </c>
+      <c r="AB21">
+        <v>83</v>
+      </c>
+      <c r="AC21">
+        <v>70.190564620000004</v>
+      </c>
+      <c r="AD21">
+        <v>100</v>
+      </c>
+      <c r="AE21">
+        <v>90</v>
+      </c>
+      <c r="AF21">
+        <v>80</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2028</v>
       </c>
@@ -18952,8 +26160,26 @@
       <c r="J22">
         <v>0.5</v>
       </c>
+      <c r="AA22">
+        <v>2028</v>
+      </c>
+      <c r="AB22">
+        <v>83</v>
+      </c>
+      <c r="AC22">
+        <v>70.655697110000006</v>
+      </c>
+      <c r="AD22">
+        <v>100</v>
+      </c>
+      <c r="AE22">
+        <v>90</v>
+      </c>
+      <c r="AF22">
+        <v>80</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2029</v>
       </c>
@@ -18987,8 +26213,26 @@
       <c r="J23">
         <v>0.5</v>
       </c>
+      <c r="AA23">
+        <v>2029</v>
+      </c>
+      <c r="AB23">
+        <v>83</v>
+      </c>
+      <c r="AC23">
+        <v>71.125574380000003</v>
+      </c>
+      <c r="AD23">
+        <v>100</v>
+      </c>
+      <c r="AE23">
+        <v>90</v>
+      </c>
+      <c r="AF23">
+        <v>80</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2030</v>
       </c>
@@ -19022,8 +26266,26 @@
       <c r="J24">
         <v>0.5</v>
       </c>
+      <c r="AA24">
+        <v>2030</v>
+      </c>
+      <c r="AB24">
+        <v>83</v>
+      </c>
+      <c r="AC24">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD24">
+        <v>100</v>
+      </c>
+      <c r="AE24">
+        <v>90</v>
+      </c>
+      <c r="AF24">
+        <v>80</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -19057,8 +26319,26 @@
       <c r="J25">
         <v>0.5</v>
       </c>
+      <c r="AA25">
+        <v>2031</v>
+      </c>
+      <c r="AB25">
+        <v>83</v>
+      </c>
+      <c r="AC25">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD25">
+        <v>100</v>
+      </c>
+      <c r="AE25">
+        <v>90</v>
+      </c>
+      <c r="AF25">
+        <v>80</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2032</v>
       </c>
@@ -19092,8 +26372,26 @@
       <c r="J26">
         <v>0.5</v>
       </c>
+      <c r="AA26">
+        <v>2032</v>
+      </c>
+      <c r="AB26">
+        <v>83</v>
+      </c>
+      <c r="AC26">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD26">
+        <v>100</v>
+      </c>
+      <c r="AE26">
+        <v>90</v>
+      </c>
+      <c r="AF26">
+        <v>80</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2033</v>
       </c>
@@ -19127,8 +26425,26 @@
       <c r="J27">
         <v>0.5</v>
       </c>
+      <c r="AA27">
+        <v>2033</v>
+      </c>
+      <c r="AB27">
+        <v>83</v>
+      </c>
+      <c r="AC27">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD27">
+        <v>100</v>
+      </c>
+      <c r="AE27">
+        <v>90</v>
+      </c>
+      <c r="AF27">
+        <v>80</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2034</v>
       </c>
@@ -19162,8 +26478,26 @@
       <c r="J28">
         <v>0.5</v>
       </c>
+      <c r="AA28">
+        <v>2034</v>
+      </c>
+      <c r="AB28">
+        <v>83</v>
+      </c>
+      <c r="AC28">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD28">
+        <v>100</v>
+      </c>
+      <c r="AE28">
+        <v>90</v>
+      </c>
+      <c r="AF28">
+        <v>80</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2035</v>
       </c>
@@ -19197,8 +26531,26 @@
       <c r="J29">
         <v>0.5</v>
       </c>
+      <c r="AA29">
+        <v>2035</v>
+      </c>
+      <c r="AB29">
+        <v>83</v>
+      </c>
+      <c r="AC29">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD29">
+        <v>100</v>
+      </c>
+      <c r="AE29">
+        <v>90</v>
+      </c>
+      <c r="AF29">
+        <v>80</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2036</v>
       </c>
@@ -19232,8 +26584,26 @@
       <c r="J30">
         <v>0.5</v>
       </c>
+      <c r="AA30">
+        <v>2036</v>
+      </c>
+      <c r="AB30">
+        <v>83</v>
+      </c>
+      <c r="AC30">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD30">
+        <v>100</v>
+      </c>
+      <c r="AE30">
+        <v>90</v>
+      </c>
+      <c r="AF30">
+        <v>80</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2037</v>
       </c>
@@ -19267,8 +26637,26 @@
       <c r="J31">
         <v>0.5</v>
       </c>
+      <c r="AA31">
+        <v>2037</v>
+      </c>
+      <c r="AB31">
+        <v>83</v>
+      </c>
+      <c r="AC31">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD31">
+        <v>100</v>
+      </c>
+      <c r="AE31">
+        <v>90</v>
+      </c>
+      <c r="AF31">
+        <v>80</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2038</v>
       </c>
@@ -19302,8 +26690,26 @@
       <c r="J32">
         <v>0.5</v>
       </c>
+      <c r="AA32">
+        <v>2038</v>
+      </c>
+      <c r="AB32">
+        <v>83</v>
+      </c>
+      <c r="AC32">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD32">
+        <v>100</v>
+      </c>
+      <c r="AE32">
+        <v>90</v>
+      </c>
+      <c r="AF32">
+        <v>80</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2039</v>
       </c>
@@ -19337,8 +26743,26 @@
       <c r="J33">
         <v>0.5</v>
       </c>
+      <c r="AA33">
+        <v>2039</v>
+      </c>
+      <c r="AB33">
+        <v>83</v>
+      </c>
+      <c r="AC33">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD33">
+        <v>100</v>
+      </c>
+      <c r="AE33">
+        <v>90</v>
+      </c>
+      <c r="AF33">
+        <v>80</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2040</v>
       </c>
@@ -19372,8 +26796,26 @@
       <c r="J34">
         <v>0.5</v>
       </c>
+      <c r="AA34">
+        <v>2040</v>
+      </c>
+      <c r="AB34">
+        <v>83</v>
+      </c>
+      <c r="AC34">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD34">
+        <v>100</v>
+      </c>
+      <c r="AE34">
+        <v>90</v>
+      </c>
+      <c r="AF34">
+        <v>80</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2041</v>
       </c>
@@ -19407,8 +26849,26 @@
       <c r="J35">
         <v>0.5</v>
       </c>
+      <c r="AA35">
+        <v>2041</v>
+      </c>
+      <c r="AB35">
+        <v>83</v>
+      </c>
+      <c r="AC35">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD35">
+        <v>100</v>
+      </c>
+      <c r="AE35">
+        <v>90</v>
+      </c>
+      <c r="AF35">
+        <v>80</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2042</v>
       </c>
@@ -19442,8 +26902,41 @@
       <c r="J36">
         <v>0.5</v>
       </c>
+      <c r="R36" t="s">
+        <v>2</v>
+      </c>
+      <c r="S36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U36" t="s">
+        <v>5</v>
+      </c>
+      <c r="V36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA36">
+        <v>2042</v>
+      </c>
+      <c r="AB36">
+        <v>83</v>
+      </c>
+      <c r="AC36">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD36">
+        <v>100</v>
+      </c>
+      <c r="AE36">
+        <v>90</v>
+      </c>
+      <c r="AF36">
+        <v>80</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2043</v>
       </c>
@@ -19477,8 +26970,44 @@
       <c r="J37">
         <v>0.5</v>
       </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>255</v>
+      </c>
+      <c r="T37">
+        <v>31</v>
+      </c>
+      <c r="U37">
+        <v>44</v>
+      </c>
+      <c r="V37">
+        <v>214</v>
+      </c>
+      <c r="AA37">
+        <v>2043</v>
+      </c>
+      <c r="AB37">
+        <v>83</v>
+      </c>
+      <c r="AC37">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD37">
+        <v>100</v>
+      </c>
+      <c r="AE37">
+        <v>90</v>
+      </c>
+      <c r="AF37">
+        <v>80</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2044</v>
       </c>
@@ -19512,8 +27041,44 @@
       <c r="J38">
         <v>0.5</v>
       </c>
+      <c r="Q38" t="s">
+        <v>23</v>
+      </c>
+      <c r="R38">
+        <v>191</v>
+      </c>
+      <c r="S38">
+        <v>127</v>
+      </c>
+      <c r="T38">
+        <v>119</v>
+      </c>
+      <c r="U38">
+        <v>160</v>
+      </c>
+      <c r="V38">
+        <v>39</v>
+      </c>
+      <c r="AA38">
+        <v>2044</v>
+      </c>
+      <c r="AB38">
+        <v>83</v>
+      </c>
+      <c r="AC38">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD38">
+        <v>100</v>
+      </c>
+      <c r="AE38">
+        <v>90</v>
+      </c>
+      <c r="AF38">
+        <v>80</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2045</v>
       </c>
@@ -19547,8 +27112,44 @@
       <c r="J39">
         <v>0.5</v>
       </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39">
+        <v>191</v>
+      </c>
+      <c r="S39">
+        <v>14</v>
+      </c>
+      <c r="T39">
+        <v>190</v>
+      </c>
+      <c r="U39">
+        <v>44</v>
+      </c>
+      <c r="V39">
+        <v>40</v>
+      </c>
+      <c r="AA39">
+        <v>2045</v>
+      </c>
+      <c r="AB39">
+        <v>83</v>
+      </c>
+      <c r="AC39">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD39">
+        <v>100</v>
+      </c>
+      <c r="AE39">
+        <v>90</v>
+      </c>
+      <c r="AF39">
+        <v>80</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2046</v>
       </c>
@@ -19582,8 +27183,26 @@
       <c r="J40">
         <v>0.5</v>
       </c>
+      <c r="AA40">
+        <v>2046</v>
+      </c>
+      <c r="AB40">
+        <v>83</v>
+      </c>
+      <c r="AC40">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD40">
+        <v>100</v>
+      </c>
+      <c r="AE40">
+        <v>90</v>
+      </c>
+      <c r="AF40">
+        <v>80</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2047</v>
       </c>
@@ -19617,8 +27236,26 @@
       <c r="J41">
         <v>0.5</v>
       </c>
+      <c r="AA41">
+        <v>2047</v>
+      </c>
+      <c r="AB41">
+        <v>83</v>
+      </c>
+      <c r="AC41">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD41">
+        <v>100</v>
+      </c>
+      <c r="AE41">
+        <v>90</v>
+      </c>
+      <c r="AF41">
+        <v>80</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2048</v>
       </c>
@@ -19652,8 +27289,26 @@
       <c r="J42">
         <v>0.5</v>
       </c>
+      <c r="AA42">
+        <v>2048</v>
+      </c>
+      <c r="AB42">
+        <v>83</v>
+      </c>
+      <c r="AC42">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD42">
+        <v>100</v>
+      </c>
+      <c r="AE42">
+        <v>90</v>
+      </c>
+      <c r="AF42">
+        <v>80</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2049</v>
       </c>
@@ -19687,8 +27342,26 @@
       <c r="J43">
         <v>0.5</v>
       </c>
+      <c r="AA43">
+        <v>2049</v>
+      </c>
+      <c r="AB43">
+        <v>83</v>
+      </c>
+      <c r="AC43">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD43">
+        <v>100</v>
+      </c>
+      <c r="AE43">
+        <v>90</v>
+      </c>
+      <c r="AF43">
+        <v>80</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2050</v>
       </c>
@@ -19721,6 +27394,24 @@
       </c>
       <c r="J44">
         <v>0.5</v>
+      </c>
+      <c r="AA44">
+        <v>2050</v>
+      </c>
+      <c r="AB44">
+        <v>83</v>
+      </c>
+      <c r="AC44">
+        <v>71.600236780000003</v>
+      </c>
+      <c r="AD44">
+        <v>100</v>
+      </c>
+      <c r="AE44">
+        <v>90</v>
+      </c>
+      <c r="AF44">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -19729,7 +27420,8 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19737,8 +27429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886825C-AE4A-4EAF-970C-700F7CC3D78A}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20607,4 +28299,1127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF334EA-9A50-43B1-8DC3-AE424E8C06D6}">
+  <dimension ref="A1:M58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1995</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="J3">
+        <v>87</v>
+      </c>
+      <c r="K3">
+        <v>86</v>
+      </c>
+      <c r="L3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1996</v>
+      </c>
+      <c r="B4">
+        <v>99.666666699999993</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>86</v>
+      </c>
+      <c r="K4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1997</v>
+      </c>
+      <c r="B5">
+        <v>99.333333300000007</v>
+      </c>
+      <c r="H5">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>88</v>
+      </c>
+      <c r="K5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1998</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+      <c r="F6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>92</v>
+      </c>
+      <c r="J6">
+        <v>88</v>
+      </c>
+      <c r="K6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1999</v>
+      </c>
+      <c r="B7">
+        <v>98.166666700000007</v>
+      </c>
+      <c r="H7">
+        <v>92</v>
+      </c>
+      <c r="J7">
+        <v>89</v>
+      </c>
+      <c r="K7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <v>97.333333300000007</v>
+      </c>
+      <c r="H8">
+        <v>92</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>86</v>
+      </c>
+      <c r="L8">
+        <v>90</v>
+      </c>
+      <c r="M8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9">
+        <v>96.5</v>
+      </c>
+      <c r="H9">
+        <v>92</v>
+      </c>
+      <c r="J9">
+        <v>91</v>
+      </c>
+      <c r="K9">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>92</v>
+      </c>
+      <c r="M9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10">
+        <v>95.666666700000007</v>
+      </c>
+      <c r="H10">
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <v>94</v>
+      </c>
+      <c r="K10">
+        <v>91</v>
+      </c>
+      <c r="L10">
+        <v>94</v>
+      </c>
+      <c r="M10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11">
+        <v>94.833333300000007</v>
+      </c>
+      <c r="H11">
+        <v>92</v>
+      </c>
+      <c r="J11">
+        <v>95</v>
+      </c>
+      <c r="K11">
+        <v>91</v>
+      </c>
+      <c r="L11">
+        <v>96</v>
+      </c>
+      <c r="M11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>94</v>
+      </c>
+      <c r="H12">
+        <v>92</v>
+      </c>
+      <c r="J12">
+        <v>95</v>
+      </c>
+      <c r="K12">
+        <v>91</v>
+      </c>
+      <c r="L12">
+        <v>95</v>
+      </c>
+      <c r="M12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2005</v>
+      </c>
+      <c r="B13">
+        <v>86.082000000000008</v>
+      </c>
+      <c r="H13">
+        <v>92</v>
+      </c>
+      <c r="J13">
+        <v>94</v>
+      </c>
+      <c r="K13">
+        <v>92</v>
+      </c>
+      <c r="L13">
+        <v>95</v>
+      </c>
+      <c r="M13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14">
+        <v>78.164000000000001</v>
+      </c>
+      <c r="H14">
+        <v>92</v>
+      </c>
+      <c r="J14">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>91</v>
+      </c>
+      <c r="L14">
+        <v>93</v>
+      </c>
+      <c r="M14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15">
+        <v>70.245999999999995</v>
+      </c>
+      <c r="H15">
+        <v>92</v>
+      </c>
+      <c r="J15">
+        <v>89</v>
+      </c>
+      <c r="K15">
+        <v>86</v>
+      </c>
+      <c r="L15">
+        <v>89</v>
+      </c>
+      <c r="M15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16">
+        <v>62.327999999999996</v>
+      </c>
+      <c r="H16">
+        <v>92</v>
+      </c>
+      <c r="I16">
+        <v>83.36</v>
+      </c>
+      <c r="J16">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>83</v>
+      </c>
+      <c r="L16">
+        <v>86</v>
+      </c>
+      <c r="M16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2009</v>
+      </c>
+      <c r="B17">
+        <v>54.410000000000004</v>
+      </c>
+      <c r="C17">
+        <v>54.410000000000004</v>
+      </c>
+      <c r="H17">
+        <v>92</v>
+      </c>
+      <c r="I17">
+        <v>81.22</v>
+      </c>
+      <c r="J17">
+        <v>83</v>
+      </c>
+      <c r="K17">
+        <v>81</v>
+      </c>
+      <c r="L17">
+        <v>84</v>
+      </c>
+      <c r="M17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18">
+        <v>34.29</v>
+      </c>
+      <c r="C18">
+        <v>34.29</v>
+      </c>
+      <c r="H18">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>85.14</v>
+      </c>
+      <c r="J18">
+        <v>88</v>
+      </c>
+      <c r="K18">
+        <v>85</v>
+      </c>
+      <c r="L18">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2011</v>
+      </c>
+      <c r="B19">
+        <v>75.63</v>
+      </c>
+      <c r="C19">
+        <v>75.63</v>
+      </c>
+      <c r="H19">
+        <v>92</v>
+      </c>
+      <c r="I19">
+        <v>85.72</v>
+      </c>
+      <c r="J19">
+        <v>86</v>
+      </c>
+      <c r="K19">
+        <v>86</v>
+      </c>
+      <c r="L19">
+        <v>87</v>
+      </c>
+      <c r="M19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20">
+        <v>75.11</v>
+      </c>
+      <c r="C20">
+        <v>75.11</v>
+      </c>
+      <c r="H20">
+        <v>92</v>
+      </c>
+      <c r="I20">
+        <v>89.36</v>
+      </c>
+      <c r="J20">
+        <v>91</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>90</v>
+      </c>
+      <c r="M20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21">
+        <v>63.019999999999996</v>
+      </c>
+      <c r="C21">
+        <v>63.019999999999996</v>
+      </c>
+      <c r="H21">
+        <v>92</v>
+      </c>
+      <c r="I21">
+        <v>90.61</v>
+      </c>
+      <c r="J21">
+        <v>91</v>
+      </c>
+      <c r="K21">
+        <v>91</v>
+      </c>
+      <c r="L21">
+        <v>91</v>
+      </c>
+      <c r="M21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22">
+        <v>29.98</v>
+      </c>
+      <c r="C22">
+        <v>29.98</v>
+      </c>
+      <c r="G22">
+        <v>92</v>
+      </c>
+      <c r="H22">
+        <v>92</v>
+      </c>
+      <c r="I22">
+        <v>93.72</v>
+      </c>
+      <c r="J22">
+        <v>92</v>
+      </c>
+      <c r="L22">
+        <v>87</v>
+      </c>
+      <c r="M22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="C23">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="H23">
+        <v>92</v>
+      </c>
+      <c r="I23">
+        <v>93.08</v>
+      </c>
+      <c r="J23">
+        <v>94</v>
+      </c>
+      <c r="L23">
+        <v>68</v>
+      </c>
+      <c r="M23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24">
+        <v>77.02</v>
+      </c>
+      <c r="C24">
+        <v>77.02</v>
+      </c>
+      <c r="H24">
+        <v>92</v>
+      </c>
+      <c r="I24">
+        <v>94.68</v>
+      </c>
+      <c r="J24">
+        <v>94</v>
+      </c>
+      <c r="L24">
+        <v>71</v>
+      </c>
+      <c r="M24">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25">
+        <v>76.92</v>
+      </c>
+      <c r="C25">
+        <v>76.92</v>
+      </c>
+      <c r="H25">
+        <v>92</v>
+      </c>
+      <c r="I25">
+        <v>96.39</v>
+      </c>
+      <c r="J25">
+        <v>96</v>
+      </c>
+      <c r="L25">
+        <v>70</v>
+      </c>
+      <c r="M25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26">
+        <v>72.27</v>
+      </c>
+      <c r="C26">
+        <v>72.27</v>
+      </c>
+      <c r="H26">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>95.87</v>
+      </c>
+      <c r="J26">
+        <v>96</v>
+      </c>
+      <c r="M26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27">
+        <v>72.27</v>
+      </c>
+      <c r="H27">
+        <v>92</v>
+      </c>
+      <c r="J27">
+        <v>95</v>
+      </c>
+      <c r="M27">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28">
+        <v>72.27</v>
+      </c>
+      <c r="G28">
+        <v>73.3</v>
+      </c>
+      <c r="H28">
+        <v>92</v>
+      </c>
+      <c r="L28">
+        <v>73.3</v>
+      </c>
+      <c r="M28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>72.27</v>
+      </c>
+      <c r="H29">
+        <v>92</v>
+      </c>
+      <c r="M29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2022</v>
+      </c>
+      <c r="B30">
+        <v>72.27</v>
+      </c>
+      <c r="H30">
+        <v>92</v>
+      </c>
+      <c r="M30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2023</v>
+      </c>
+      <c r="B31">
+        <v>72.27</v>
+      </c>
+      <c r="H31">
+        <v>92</v>
+      </c>
+      <c r="M31">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>72.27</v>
+      </c>
+      <c r="H32">
+        <v>92</v>
+      </c>
+      <c r="M32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2025</v>
+      </c>
+      <c r="B33">
+        <v>72.27</v>
+      </c>
+      <c r="H33">
+        <v>92</v>
+      </c>
+      <c r="M33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2026</v>
+      </c>
+      <c r="B34">
+        <v>72.27</v>
+      </c>
+      <c r="H34">
+        <v>92</v>
+      </c>
+      <c r="M34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2027</v>
+      </c>
+      <c r="B35">
+        <v>72.27</v>
+      </c>
+      <c r="H35">
+        <v>92</v>
+      </c>
+      <c r="M35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2028</v>
+      </c>
+      <c r="B36">
+        <v>72.27</v>
+      </c>
+      <c r="H36">
+        <v>92</v>
+      </c>
+      <c r="M36">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2029</v>
+      </c>
+      <c r="B37">
+        <v>72.27</v>
+      </c>
+      <c r="H37">
+        <v>92</v>
+      </c>
+      <c r="M37">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2030</v>
+      </c>
+      <c r="B38">
+        <v>72.27</v>
+      </c>
+      <c r="G38">
+        <v>44.8</v>
+      </c>
+      <c r="H38">
+        <v>92</v>
+      </c>
+      <c r="L38">
+        <v>44.8</v>
+      </c>
+      <c r="M38">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2031</v>
+      </c>
+      <c r="B39">
+        <v>72.27</v>
+      </c>
+      <c r="H39">
+        <v>92</v>
+      </c>
+      <c r="M39">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2032</v>
+      </c>
+      <c r="B40">
+        <v>72.27</v>
+      </c>
+      <c r="H40">
+        <v>92</v>
+      </c>
+      <c r="M40">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2033</v>
+      </c>
+      <c r="B41">
+        <v>72.27</v>
+      </c>
+      <c r="H41">
+        <v>92</v>
+      </c>
+      <c r="M41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2034</v>
+      </c>
+      <c r="B42">
+        <v>72.27</v>
+      </c>
+      <c r="H42">
+        <v>92</v>
+      </c>
+      <c r="M42">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2035</v>
+      </c>
+      <c r="B43">
+        <v>72.27</v>
+      </c>
+      <c r="H43">
+        <v>92</v>
+      </c>
+      <c r="M43">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2036</v>
+      </c>
+      <c r="B44">
+        <v>72.27</v>
+      </c>
+      <c r="H44">
+        <v>92</v>
+      </c>
+      <c r="M44">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2037</v>
+      </c>
+      <c r="B45">
+        <v>72.27</v>
+      </c>
+      <c r="H45">
+        <v>92</v>
+      </c>
+      <c r="M45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2038</v>
+      </c>
+      <c r="B46">
+        <v>72.27</v>
+      </c>
+      <c r="H46">
+        <v>92</v>
+      </c>
+      <c r="M46">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2039</v>
+      </c>
+      <c r="B47">
+        <v>72.27</v>
+      </c>
+      <c r="H47">
+        <v>92</v>
+      </c>
+      <c r="M47">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2040</v>
+      </c>
+      <c r="B48">
+        <v>72.27</v>
+      </c>
+      <c r="H48">
+        <v>92</v>
+      </c>
+      <c r="M48">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2041</v>
+      </c>
+      <c r="B49">
+        <v>72.27</v>
+      </c>
+      <c r="H49">
+        <v>92</v>
+      </c>
+      <c r="M49">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2042</v>
+      </c>
+      <c r="B50">
+        <v>72.27</v>
+      </c>
+      <c r="H50">
+        <v>92</v>
+      </c>
+      <c r="M50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2043</v>
+      </c>
+      <c r="B51">
+        <v>72.27</v>
+      </c>
+      <c r="H51">
+        <v>92</v>
+      </c>
+      <c r="M51">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2044</v>
+      </c>
+      <c r="B52">
+        <v>72.27</v>
+      </c>
+      <c r="H52">
+        <v>92</v>
+      </c>
+      <c r="M52">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2045</v>
+      </c>
+      <c r="B53">
+        <v>72.27</v>
+      </c>
+      <c r="H53">
+        <v>92</v>
+      </c>
+      <c r="M53">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2046</v>
+      </c>
+      <c r="B54">
+        <v>72.27</v>
+      </c>
+      <c r="H54">
+        <v>92</v>
+      </c>
+      <c r="M54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2047</v>
+      </c>
+      <c r="B55">
+        <v>72.27</v>
+      </c>
+      <c r="H55">
+        <v>92</v>
+      </c>
+      <c r="M55">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2048</v>
+      </c>
+      <c r="B56">
+        <v>72.27</v>
+      </c>
+      <c r="H56">
+        <v>92</v>
+      </c>
+      <c r="M56">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2049</v>
+      </c>
+      <c r="B57">
+        <v>72.27</v>
+      </c>
+      <c r="H57">
+        <v>92</v>
+      </c>
+      <c r="M57">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2050</v>
+      </c>
+      <c r="B58">
+        <v>72.27</v>
+      </c>
+      <c r="H58">
+        <v>92</v>
+      </c>
+      <c r="M58">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\ReedsSubset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767BFBBB-52DC-4457-BD34-060497692186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609DC77-4CE5-4202-87BF-36A9D326009F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>PV_ICE_USA</t>
-  </si>
-  <si>
     <t>(Global) P. Mints SPV Market Research 2019</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>(USA) M. Bolinger et al 2019 [utility scale]</t>
+  </si>
+  <si>
+    <t>(USA) PV ICE 2021</t>
   </si>
 </sst>
 </file>
@@ -4476,65 +4476,16 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Market Share Silicon PV, USA and Globally</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1060169235854953E-2"/>
-          <c:y val="6.4957243572431309E-2"/>
-          <c:w val="0.8842970862931655"/>
+          <c:x val="8.5227765715926135E-2"/>
+          <c:y val="2.4216535433070858E-2"/>
+          <c:w val="0.86855520722448443"/>
           <c:h val="0.51337911927675706"/>
         </c:manualLayout>
       </c:layout>
@@ -4550,13 +4501,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV_ICE_USA</c:v>
+                  <c:v>(USA) PV ICE 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4954,23 +4905,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
@@ -4994,6 +4929,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-54AF-4671-86D6-B0583E92DB1B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -5209,7 +5149,7 @@
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5218,7 +5158,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -5456,7 +5396,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -5944,23 +5884,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7287,19 +7211,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="11"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -8147,6 +8059,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Market Share (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8199,10 +8160,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.231264673943941E-2"/>
-          <c:y val="0.64498629337999414"/>
-          <c:w val="0.58145446356542729"/>
-          <c:h val="0.3425912802566346"/>
+          <c:x val="2.0828922728180953E-2"/>
+          <c:y val="0.6042455526392535"/>
+          <c:w val="0.47440997878447283"/>
+          <c:h val="0.38333202099737534"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8247,12 +8208,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -28306,10 +28262,10 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28333,40 +28289,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/ReedsSubset/BaselineGraphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\ReedsSubset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609DC77-4CE5-4202-87BF-36A9D326009F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C876D5-BB7C-435F-96D0-09586AAB5E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -152,6 +152,12 @@
   <si>
     <t>(USA) PV ICE 2021</t>
   </si>
+  <si>
+    <t>Total Mass</t>
+  </si>
+  <si>
+    <t>Percent of Module Composition</t>
+  </si>
 </sst>
 </file>
 
@@ -195,10 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10232,7 +10241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$G$2</c:f>
+              <c:f>'mass per m2'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10390,7 +10399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$G$3:$G$44</c:f>
+              <c:f>'mass per m2'!$P$3:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -10535,7 +10544,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$K$1</c:f>
+              <c:f>'mass per m2'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10693,7 +10702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$K$3:$K$44</c:f>
+              <c:f>'mass per m2'!$T$3:$T$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -11149,7 +11158,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$J$2</c:f>
+              <c:f>'mass per m2'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11307,7 +11316,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$J$3:$J$44</c:f>
+              <c:f>'mass per m2'!$S$3:$S$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -22663,13 +22672,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -22699,13 +22708,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -22735,13 +22744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -22771,16 +22780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22807,16 +22816,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>306387</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1587</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23416,39 +23425,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7BEC5-C527-4A05-96EF-71A772E43E2F}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -23468,25 +23491,43 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -23506,22 +23547,46 @@
         <v>25.6</v>
       </c>
       <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>9450.1959999999999</v>
+      </c>
+      <c r="H3">
+        <f>B3/$G3*100</f>
+        <v>84.65432886259714</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:L3" si="0">C3/$G3*100</f>
+        <v>4.4360984682222462</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>10.581791107824642</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>5.6887708995665275E-2</v>
+      </c>
+      <c r="L3">
+        <f>F3/$G3*100</f>
+        <v>0.27089385236031083</v>
+      </c>
+      <c r="P3">
         <v>14.57777778</v>
       </c>
-      <c r="H3">
+      <c r="Q3">
         <v>24</v>
       </c>
-      <c r="I3">
+      <c r="R3">
         <v>29</v>
       </c>
-      <c r="J3">
+      <c r="S3">
         <v>0.6</v>
       </c>
-      <c r="K3">
+      <c r="T3">
         <v>15.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -23541,25 +23606,49 @@
         <v>12.327416169999999</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G44" si="1">SUM(B4:F4)</f>
+        <v>9436.9234161699987</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H44" si="2">B4/$G4*100</f>
+        <v>84.773391148773598</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I44" si="3">C4/$G4*100</f>
+        <v>4.4423376296736077</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J44" si="4">D4/$G4*100</f>
+        <v>10.5966738935967</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K44" si="5">E4/$G4*100</f>
+        <v>5.6967718851975858E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L44" si="6">F4/$G4*100</f>
+        <v>0.13062960910414079</v>
+      </c>
+      <c r="P4">
         <v>14.7</v>
       </c>
-      <c r="H4">
+      <c r="Q4">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="R4">
         <v>30</v>
       </c>
-      <c r="J4">
+      <c r="S4">
         <v>0.3</v>
       </c>
-      <c r="K4">
+      <c r="T4">
         <v>15.3</v>
       </c>
-      <c r="L4">
+      <c r="U4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -23579,22 +23668,46 @@
         <v>10.272846810000001</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>9434.868846809999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>84.791851692828374</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>4.4433050083334384</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>10.598981461603547</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>5.6980124337580658E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>0.10888171289708314</v>
+      </c>
+      <c r="P5">
         <v>15.1</v>
       </c>
-      <c r="H5">
+      <c r="Q5">
         <v>25</v>
       </c>
-      <c r="I5">
+      <c r="R5">
         <v>30</v>
       </c>
-      <c r="J5">
+      <c r="S5">
         <v>0.3</v>
       </c>
-      <c r="K5">
+      <c r="T5">
         <v>15.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -23614,22 +23727,46 @@
         <v>8.2182774490000003</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>9432.8142774489988</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>84.810320278705959</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>4.4442728084048904</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>10.601290034838245</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>5.6992535227290406E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>8.7124342823619583E-2</v>
+      </c>
+      <c r="P6">
         <v>15.4</v>
       </c>
-      <c r="H6">
+      <c r="Q6">
         <v>25</v>
       </c>
-      <c r="I6">
+      <c r="R6">
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="S6">
         <v>0.3</v>
       </c>
-      <c r="K6">
+      <c r="T6">
         <v>15.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -23649,22 +23786,46 @@
         <v>5.7527942139999997</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9590.348794214</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>85.085539380205333</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>4.371269585658049</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>10.427149433848692</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>5.6056355356370574E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>5.9985244931558129E-2</v>
+      </c>
+      <c r="P7">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="Q7">
         <v>28</v>
       </c>
-      <c r="I7">
+      <c r="R7">
         <v>33</v>
       </c>
-      <c r="J7">
+      <c r="S7">
         <v>0.3</v>
       </c>
-      <c r="K7">
+      <c r="T7">
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -23684,22 +23845,46 @@
         <v>5.3418803419999996</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9749.9378803420004</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>85.333877016539077</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4.2997197022684519</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>10.25647560294941</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>5.5138812841456025E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>5.4788865401598046E-2</v>
+      </c>
+      <c r="P8">
         <v>16.3</v>
       </c>
-      <c r="H8">
+      <c r="Q8">
         <v>28</v>
       </c>
-      <c r="I8">
+      <c r="R8">
         <v>33</v>
       </c>
-      <c r="J8">
+      <c r="S8">
         <v>0.3</v>
       </c>
-      <c r="K8">
+      <c r="T8">
         <v>15.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -23719,25 +23904,49 @@
         <v>4.5200525970000003</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9709.5282125969989</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>85.277057944562642</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>4.3176145207149217</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>10.299161587507566</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>5.9613195134347791E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>4.6552752080536212E-2</v>
+      </c>
+      <c r="P9">
         <v>17</v>
       </c>
-      <c r="H9">
+      <c r="Q9">
         <v>28</v>
       </c>
-      <c r="I9">
+      <c r="R9">
         <v>33</v>
       </c>
-      <c r="J9">
+      <c r="S9">
         <v>0.3</v>
       </c>
-      <c r="K9">
+      <c r="T9">
         <v>15.3</v>
       </c>
-      <c r="L9">
+      <c r="U9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -23757,22 +23966,46 @@
         <v>4.0997570090000002</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9669.5200770089996</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>85.216225152601552</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>4.3354788723875757</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>10.341774897160382</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>6.4122313730361452E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>4.2398764120133534E-2</v>
+      </c>
+      <c r="P10">
         <v>17.5</v>
       </c>
-      <c r="H10">
+      <c r="Q10">
         <v>28</v>
       </c>
-      <c r="I10">
+      <c r="R10">
         <v>33</v>
       </c>
-      <c r="J10">
+      <c r="S10">
         <v>0.3</v>
       </c>
-      <c r="K10">
+      <c r="T10">
         <v>15.3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -23792,22 +24025,46 @@
         <v>4.079110301</v>
       </c>
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>9655.5029503009991</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>85.184583779176364</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>4.3417727917211328</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>10.356788301419618</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>7.4608645837298704E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>4.224648184559706E-2</v>
+      </c>
+      <c r="P11">
         <v>17.7</v>
       </c>
-      <c r="H11">
+      <c r="Q11">
         <v>28</v>
       </c>
-      <c r="I11">
+      <c r="R11">
         <v>33</v>
       </c>
-      <c r="J11">
+      <c r="S11">
         <v>0.3</v>
       </c>
-      <c r="K11">
+      <c r="T11">
         <v>15.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -23827,22 +24084,46 @@
         <v>4.3128338230000001</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>10172.622562123001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>86.015183858093494</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>4.0388307517649178</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>9.8303067266392574</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>7.3282184161212197E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>4.23964793411142E-2</v>
+      </c>
+      <c r="P12">
         <v>18.399999999999999</v>
       </c>
-      <c r="H12">
+      <c r="Q12">
         <v>28</v>
       </c>
-      <c r="I12">
+      <c r="R12">
         <v>33</v>
       </c>
-      <c r="J12">
+      <c r="S12">
         <v>0.3</v>
       </c>
-      <c r="K12">
+      <c r="T12">
         <v>15.3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -23862,22 +24143,46 @@
         <v>4.1473098100000003</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10214.549096509998</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>86.15162467628349</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>3.9369399755237291</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>9.7899573495776693</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>8.0876012459743074E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>4.0601986155385072E-2</v>
+      </c>
+      <c r="P13">
         <v>19.2</v>
       </c>
-      <c r="H13">
+      <c r="Q13">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="R13">
         <v>33</v>
       </c>
-      <c r="J13">
+      <c r="S13">
         <v>0.3</v>
       </c>
-      <c r="K13">
+      <c r="T13">
         <v>15.3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -23897,25 +24202,49 @@
         <v>3.5949654450000001</v>
       </c>
       <c r="G14">
+        <f t="shared" si="1"/>
+        <v>10191.874228745</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>86.343294692360104</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>3.72899012262241</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>9.8117380332227402</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>8.0704292609906331E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>3.5272859184828018E-2</v>
+      </c>
+      <c r="P14">
         <v>20.252588490000001</v>
       </c>
-      <c r="H14">
+      <c r="Q14">
         <v>33</v>
       </c>
-      <c r="I14">
+      <c r="R14">
         <v>38</v>
       </c>
-      <c r="J14">
+      <c r="S14">
         <v>0.5</v>
       </c>
-      <c r="K14">
+      <c r="T14">
         <v>15.3</v>
       </c>
-      <c r="L14">
+      <c r="U14">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -23935,22 +24264,46 @@
         <v>3.3412788689999999</v>
       </c>
       <c r="G15">
+        <f t="shared" si="1"/>
+        <v>10178.991700469</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>86.452570735415151</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>3.6092017010198845</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>9.8241557653880864</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>8.1246554112220704E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>3.2825244064655736E-2</v>
+      </c>
+      <c r="P15">
         <v>20.894864800000001</v>
       </c>
-      <c r="H15">
+      <c r="Q15">
         <v>33</v>
       </c>
-      <c r="I15">
+      <c r="R15">
         <v>38</v>
       </c>
-      <c r="J15">
+      <c r="S15">
         <v>0.5</v>
       </c>
-      <c r="K15">
+      <c r="T15">
         <v>15.3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -23970,22 +24323,46 @@
         <v>3.0936340219999998</v>
       </c>
       <c r="G16">
+        <f t="shared" si="1"/>
+        <v>10166.115214022</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>86.562072283641498</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>3.4891076141922661</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>9.836599123141081</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>8.1790141317023307E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>3.043083770812461E-2</v>
+      </c>
+      <c r="P16">
         <v>21.362882320000001</v>
       </c>
-      <c r="H16">
+      <c r="Q16">
         <v>33</v>
       </c>
-      <c r="I16">
+      <c r="R16">
         <v>38</v>
       </c>
-      <c r="J16">
+      <c r="S16">
         <v>0.5</v>
       </c>
-      <c r="K16">
+      <c r="T16">
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -24005,22 +24382,46 @@
         <v>2.8988638820000001</v>
       </c>
       <c r="G17">
+        <f t="shared" si="1"/>
+        <v>10159.781457282001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>86.616036348819492</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>3.4301528518629332</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>9.8427314032749411</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>8.2546657477449492E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>2.8532738565180907E-2</v>
+      </c>
+      <c r="P17">
         <v>21.733112049999999</v>
       </c>
-      <c r="H17">
+      <c r="Q17">
         <v>33</v>
       </c>
-      <c r="I17">
+      <c r="R17">
         <v>38</v>
       </c>
-      <c r="J17">
+      <c r="S17">
         <v>0.5</v>
       </c>
-      <c r="K17">
+      <c r="T17">
         <v>15.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2024</v>
       </c>
@@ -24040,22 +24441,46 @@
         <v>2.692895407</v>
       </c>
       <c r="G18">
+        <f t="shared" si="1"/>
+        <v>10153.436502107001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>86.670163330157806</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>3.3711282542513592</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>9.8488821966088427</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>8.3304209350644781E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>2.6522009631332021E-2</v>
+      </c>
+      <c r="P18">
         <v>22.040369699999999</v>
       </c>
-      <c r="H18">
+      <c r="Q18">
         <v>33</v>
       </c>
-      <c r="I18">
+      <c r="R18">
         <v>38</v>
       </c>
-      <c r="J18">
+      <c r="S18">
         <v>0.5</v>
       </c>
-      <c r="K18">
+      <c r="T18">
         <v>15.3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2025</v>
       </c>
@@ -24075,25 +24500,49 @@
         <v>2.542951049</v>
       </c>
       <c r="G19">
+        <f t="shared" si="1"/>
+        <v>10146.749663881999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>86.727280079887649</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>3.3115166001981264</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>9.8553727363508692</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>8.0768853125174608E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>2.5061730438189444E-2</v>
+      </c>
+      <c r="P19">
         <v>22.303538889999999</v>
       </c>
-      <c r="H19">
+      <c r="Q19">
         <v>33</v>
       </c>
-      <c r="I19">
+      <c r="R19">
         <v>38</v>
       </c>
-      <c r="J19">
+      <c r="S19">
         <v>0.5</v>
       </c>
-      <c r="K19">
+      <c r="T19">
         <v>15.3</v>
       </c>
-      <c r="L19">
+      <c r="U19">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2026</v>
       </c>
@@ -24113,22 +24562,46 @@
         <v>2.4012622069999998</v>
       </c>
       <c r="G20">
+        <f t="shared" si="1"/>
+        <v>10140.071081074</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>86.784401506068491</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>3.2518236762209698</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>9.8618638075077829</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>7.8230089351206095E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>2.3680920851549561E-2</v>
+      </c>
+      <c r="P20">
         <v>22.534045020000001</v>
       </c>
-      <c r="H20">
+      <c r="Q20">
         <v>33</v>
       </c>
-      <c r="I20">
+      <c r="R20">
         <v>38</v>
       </c>
-      <c r="J20">
+      <c r="S20">
         <v>0.5</v>
       </c>
-      <c r="K20">
+      <c r="T20">
         <v>15.3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2027</v>
       </c>
@@ -24148,22 +24621,46 @@
         <v>2.2668844890000002</v>
       </c>
       <c r="G21">
+        <f t="shared" si="1"/>
+        <v>10133.399809488999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>86.841535569924005</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>3.192049766921329</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>9.8683563147640907</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>7.568792452872504E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>2.2370423861863921E-2</v>
+      </c>
+      <c r="P21">
         <v>22.739342440000001</v>
       </c>
-      <c r="H21">
+      <c r="Q21">
         <v>33</v>
       </c>
-      <c r="I21">
+      <c r="R21">
         <v>38</v>
       </c>
-      <c r="J21">
+      <c r="S21">
         <v>0.5</v>
       </c>
-      <c r="K21">
+      <c r="T21">
         <v>15.3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2028</v>
       </c>
@@ -24183,22 +24680,46 @@
         <v>2.1296348279999999</v>
       </c>
       <c r="G22">
+        <f t="shared" si="1"/>
+        <v>10204.932914794999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>86.967744659380585</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>3.1397393395450508</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>9.7991824968316159</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>7.2464823911569567E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>2.0868680331180608E-2</v>
+      </c>
+      <c r="P22">
         <v>22.924571610000001</v>
       </c>
-      <c r="H22">
+      <c r="Q22">
         <v>33</v>
       </c>
-      <c r="I22">
+      <c r="R22">
         <v>38</v>
       </c>
-      <c r="J22">
+      <c r="S22">
         <v>0.5</v>
       </c>
-      <c r="K22">
+      <c r="T22">
         <v>15.3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2029</v>
       </c>
@@ -24218,22 +24739,46 @@
         <v>1.9927764130000001</v>
       </c>
       <c r="G23">
+        <f t="shared" si="1"/>
+        <v>10201.466411446001</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>86.997296683173786</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>3.110860820400593</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>9.8025123023294416</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>6.9795978791942603E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>1.9534215304224438E-2</v>
+      </c>
+      <c r="P23">
         <v>23.093431240000001</v>
       </c>
-      <c r="H23">
+      <c r="Q23">
         <v>33</v>
       </c>
-      <c r="I23">
+      <c r="R23">
         <v>38</v>
       </c>
-      <c r="J23">
+      <c r="S23">
         <v>0.5</v>
       </c>
-      <c r="K23">
+      <c r="T23">
         <v>15.3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2030</v>
       </c>
@@ -24253,25 +24798,49 @@
         <v>1.856311209</v>
       </c>
       <c r="G24">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P24">
         <v>23.248673839999999</v>
       </c>
-      <c r="H24">
+      <c r="Q24">
         <v>33</v>
       </c>
-      <c r="I24">
+      <c r="R24">
         <v>38</v>
       </c>
-      <c r="J24">
+      <c r="S24">
         <v>0.5</v>
       </c>
-      <c r="K24">
+      <c r="T24">
         <v>15.3</v>
       </c>
-      <c r="L24">
+      <c r="U24">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -24291,22 +24860,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G25">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P25">
         <v>23.392404590000002</v>
       </c>
-      <c r="H25">
+      <c r="Q25">
         <v>33</v>
       </c>
-      <c r="I25">
+      <c r="R25">
         <v>38</v>
       </c>
-      <c r="J25">
+      <c r="S25">
         <v>0.5</v>
       </c>
-      <c r="K25">
+      <c r="T25">
         <v>15.3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2032</v>
       </c>
@@ -24326,22 +24919,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G26">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P26">
         <v>23.526270570000001</v>
       </c>
-      <c r="H26">
+      <c r="Q26">
         <v>33</v>
       </c>
-      <c r="I26">
+      <c r="R26">
         <v>38</v>
       </c>
-      <c r="J26">
+      <c r="S26">
         <v>0.5</v>
       </c>
-      <c r="K26">
+      <c r="T26">
         <v>15.3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2033</v>
       </c>
@@ -24361,22 +24978,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G27">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P27">
         <v>23.651585300000001</v>
       </c>
-      <c r="H27">
+      <c r="Q27">
         <v>33</v>
       </c>
-      <c r="I27">
+      <c r="R27">
         <v>38</v>
       </c>
-      <c r="J27">
+      <c r="S27">
         <v>0.5</v>
       </c>
-      <c r="K27">
+      <c r="T27">
         <v>15.3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2034</v>
       </c>
@@ -24396,22 +25037,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G28">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P28">
         <v>23.769413579999998</v>
       </c>
-      <c r="H28">
+      <c r="Q28">
         <v>33</v>
       </c>
-      <c r="I28">
+      <c r="R28">
         <v>38</v>
       </c>
-      <c r="J28">
+      <c r="S28">
         <v>0.5</v>
       </c>
-      <c r="K28">
+      <c r="T28">
         <v>15.3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2035</v>
       </c>
@@ -24431,25 +25096,49 @@
         <v>1.856311209</v>
       </c>
       <c r="G29">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P29">
         <v>23.880630870000001</v>
       </c>
-      <c r="H29">
+      <c r="Q29">
         <v>33</v>
       </c>
-      <c r="I29">
+      <c r="R29">
         <v>38</v>
       </c>
-      <c r="J29">
+      <c r="S29">
         <v>0.5</v>
       </c>
-      <c r="K29">
+      <c r="T29">
         <v>15.3</v>
       </c>
-      <c r="L29">
+      <c r="U29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2036</v>
       </c>
@@ -24469,22 +25158,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G30">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P30">
         <v>23.985965879999998</v>
       </c>
-      <c r="H30">
+      <c r="Q30">
         <v>33</v>
       </c>
-      <c r="I30">
+      <c r="R30">
         <v>38</v>
       </c>
-      <c r="J30">
+      <c r="S30">
         <v>0.5</v>
       </c>
-      <c r="K30">
+      <c r="T30">
         <v>15.3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2037</v>
       </c>
@@ -24504,22 +25217,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G31">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P31">
         <v>24.08603183</v>
       </c>
-      <c r="H31">
+      <c r="Q31">
         <v>33</v>
       </c>
-      <c r="I31">
+      <c r="R31">
         <v>38</v>
       </c>
-      <c r="J31">
+      <c r="S31">
         <v>0.5</v>
       </c>
-      <c r="K31">
+      <c r="T31">
         <v>15.3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2038</v>
       </c>
@@ -24539,22 +25276,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G32">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P32">
         <v>24.181349740000002</v>
       </c>
-      <c r="H32">
+      <c r="Q32">
         <v>33</v>
       </c>
-      <c r="I32">
+      <c r="R32">
         <v>38</v>
       </c>
-      <c r="J32">
+      <c r="S32">
         <v>0.5</v>
       </c>
-      <c r="K32">
+      <c r="T32">
         <v>15.3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2039</v>
       </c>
@@ -24574,22 +25335,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G33">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P33">
         <v>24.272366120000001</v>
       </c>
-      <c r="H33">
+      <c r="Q33">
         <v>33</v>
       </c>
-      <c r="I33">
+      <c r="R33">
         <v>38</v>
       </c>
-      <c r="J33">
+      <c r="S33">
         <v>0.5</v>
       </c>
-      <c r="K33">
+      <c r="T33">
         <v>15.3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2040</v>
       </c>
@@ -24609,25 +25394,49 @@
         <v>1.856311209</v>
       </c>
       <c r="G34">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P34">
         <v>24.359466650000002</v>
       </c>
-      <c r="H34">
+      <c r="Q34">
         <v>33</v>
       </c>
-      <c r="I34">
+      <c r="R34">
         <v>38</v>
       </c>
-      <c r="J34">
+      <c r="S34">
         <v>0.5</v>
       </c>
-      <c r="K34">
+      <c r="T34">
         <v>15.3</v>
       </c>
-      <c r="L34">
+      <c r="U34">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2041</v>
       </c>
@@ -24647,22 +25456,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G35">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P35">
         <v>24.442986730000001</v>
       </c>
-      <c r="H35">
+      <c r="Q35">
         <v>33</v>
       </c>
-      <c r="I35">
+      <c r="R35">
         <v>38</v>
       </c>
-      <c r="J35">
+      <c r="S35">
         <v>0.5</v>
       </c>
-      <c r="K35">
+      <c r="T35">
         <v>15.3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2042</v>
       </c>
@@ -24682,22 +25515,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G36">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P36">
         <v>24.523219999999998</v>
       </c>
-      <c r="H36">
+      <c r="Q36">
         <v>33</v>
       </c>
-      <c r="I36">
+      <c r="R36">
         <v>38</v>
       </c>
-      <c r="J36">
+      <c r="S36">
         <v>0.5</v>
       </c>
-      <c r="K36">
+      <c r="T36">
         <v>15.3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2043</v>
       </c>
@@ -24717,22 +25574,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G37">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P37">
         <v>24.600424960000002</v>
       </c>
-      <c r="H37">
+      <c r="Q37">
         <v>33</v>
       </c>
-      <c r="I37">
+      <c r="R37">
         <v>38</v>
       </c>
-      <c r="J37">
+      <c r="S37">
         <v>0.5</v>
       </c>
-      <c r="K37">
+      <c r="T37">
         <v>15.3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2044</v>
       </c>
@@ -24752,22 +25633,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G38">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P38">
         <v>24.674830409999998</v>
       </c>
-      <c r="H38">
+      <c r="Q38">
         <v>33</v>
       </c>
-      <c r="I38">
+      <c r="R38">
         <v>38</v>
       </c>
-      <c r="J38">
+      <c r="S38">
         <v>0.5</v>
       </c>
-      <c r="K38">
+      <c r="T38">
         <v>15.3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2045</v>
       </c>
@@ -24787,25 +25692,49 @@
         <v>1.856311209</v>
       </c>
       <c r="G39">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P39">
         <v>24.746639890000001</v>
       </c>
-      <c r="H39">
+      <c r="Q39">
         <v>33</v>
       </c>
-      <c r="I39">
+      <c r="R39">
         <v>38</v>
       </c>
-      <c r="J39">
+      <c r="S39">
         <v>0.5</v>
       </c>
-      <c r="K39">
+      <c r="T39">
         <v>15.3</v>
       </c>
-      <c r="L39">
+      <c r="U39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2046</v>
       </c>
@@ -24825,22 +25754,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G40">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P40">
         <v>24.816035240000001</v>
       </c>
-      <c r="H40">
+      <c r="Q40">
         <v>33</v>
       </c>
-      <c r="I40">
+      <c r="R40">
         <v>38</v>
       </c>
-      <c r="J40">
+      <c r="S40">
         <v>0.5</v>
       </c>
-      <c r="K40">
+      <c r="T40">
         <v>15.3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2047</v>
       </c>
@@ -24860,22 +25813,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G41">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P41">
         <v>24.88317962</v>
       </c>
-      <c r="H41">
+      <c r="Q41">
         <v>33</v>
       </c>
-      <c r="I41">
+      <c r="R41">
         <v>38</v>
       </c>
-      <c r="J41">
+      <c r="S41">
         <v>0.5</v>
       </c>
-      <c r="K41">
+      <c r="T41">
         <v>15.3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2048</v>
       </c>
@@ -24895,22 +25872,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G42">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P42">
         <v>24.94822001</v>
       </c>
-      <c r="H42">
+      <c r="Q42">
         <v>33</v>
       </c>
-      <c r="I42">
+      <c r="R42">
         <v>38</v>
       </c>
-      <c r="J42">
+      <c r="S42">
         <v>0.5</v>
       </c>
-      <c r="K42">
+      <c r="T42">
         <v>15.3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2049</v>
       </c>
@@ -24930,22 +25931,46 @@
         <v>1.856311209</v>
       </c>
       <c r="G43">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P43">
         <v>25.011289269999999</v>
       </c>
-      <c r="H43">
+      <c r="Q43">
         <v>33</v>
       </c>
-      <c r="I43">
+      <c r="R43">
         <v>38</v>
       </c>
-      <c r="J43">
+      <c r="S43">
         <v>0.5</v>
       </c>
-      <c r="K43">
+      <c r="T43">
         <v>15.3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2050</v>
       </c>
@@ -24965,32 +25990,57 @@
         <v>1.856311209</v>
       </c>
       <c r="G44">
+        <f t="shared" si="1"/>
+        <v>10198.000301208998</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>87.026865442903016</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>3.0819625487041717</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>9.8058439935665369</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>6.7125316707320123E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>1.8202698118962888E-2</v>
+      </c>
+      <c r="P44">
         <v>25.072507909999999</v>
       </c>
-      <c r="H44">
+      <c r="Q44">
         <v>33</v>
       </c>
-      <c r="I44">
+      <c r="R44">
         <v>38</v>
       </c>
-      <c r="J44">
+      <c r="S44">
         <v>0.5</v>
       </c>
-      <c r="K44">
+      <c r="T44">
         <v>15.3</v>
       </c>
-      <c r="L44">
+      <c r="U44">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K1" r:id="rId1" display="https://doi.org/10.1016/j.resconrec.2020.105145" xr:uid="{600CFAA9-3DFB-42AD-A445-A4B5AA1290BE}"/>
-    <hyperlink ref="L1" r:id="rId2" display="https://doi.org/10.2172/1561525" xr:uid="{D097713C-7BEA-4FA1-9B9F-78A40BE50501}"/>
+    <hyperlink ref="T1" r:id="rId1" display="https://doi.org/10.1016/j.resconrec.2020.105145" xr:uid="{600CFAA9-3DFB-42AD-A445-A4B5AA1290BE}"/>
+    <hyperlink ref="U1" r:id="rId2" display="https://doi.org/10.2172/1561525" xr:uid="{D097713C-7BEA-4FA1-9B9F-78A40BE50501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -25005,27 +26055,27 @@
       <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -25075,7 +26125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -25128,7 +26178,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -25181,7 +26231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -25234,7 +26284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -25287,7 +26337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -25340,7 +26390,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -25393,7 +26443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -25446,7 +26496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -25499,7 +26549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -25552,7 +26602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -25605,7 +26655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -25658,7 +26708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -25711,7 +26761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -25764,7 +26814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -25817,7 +26867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -25870,7 +26920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2024</v>
       </c>
@@ -25923,7 +26973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2025</v>
       </c>
@@ -25976,7 +27026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2026</v>
       </c>
@@ -26029,7 +27079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2027</v>
       </c>
@@ -26082,7 +27132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2028</v>
       </c>
@@ -26135,7 +27185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2029</v>
       </c>
@@ -26188,7 +27238,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2030</v>
       </c>
@@ -26241,7 +27291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -26294,7 +27344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2032</v>
       </c>
@@ -26347,7 +27397,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2033</v>
       </c>
@@ -26400,7 +27450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2034</v>
       </c>
@@ -26453,7 +27503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2035</v>
       </c>
@@ -26506,7 +27556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2036</v>
       </c>
@@ -26559,7 +27609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2037</v>
       </c>
@@ -26612,7 +27662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2038</v>
       </c>
@@ -26665,7 +27715,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2039</v>
       </c>
@@ -26718,7 +27768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2040</v>
       </c>
@@ -26771,7 +27821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2041</v>
       </c>
@@ -26824,7 +27874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2042</v>
       </c>
@@ -26892,7 +27942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2043</v>
       </c>
@@ -26963,7 +28013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2044</v>
       </c>
@@ -27034,7 +28084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2045</v>
       </c>
@@ -27105,7 +28155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2046</v>
       </c>
@@ -27158,7 +28208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2047</v>
       </c>
@@ -27211,7 +28261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2048</v>
       </c>
@@ -27264,7 +28314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2049</v>
       </c>
@@ -27317,7 +28367,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2050</v>
       </c>
@@ -27389,9 +28439,9 @@
       <selection sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27411,7 +28461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -27431,7 +28481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -27451,7 +28501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -27471,7 +28521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -27491,7 +28541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -27511,7 +28561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -27531,7 +28581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -27551,7 +28601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -27571,7 +28621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -27591,7 +28641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -27611,7 +28661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -27631,7 +28681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -27651,7 +28701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -27671,7 +28721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -27691,7 +28741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2023</v>
       </c>
@@ -27711,7 +28761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2024</v>
       </c>
@@ -27731,7 +28781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2025</v>
       </c>
@@ -27751,7 +28801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2026</v>
       </c>
@@ -27771,7 +28821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2027</v>
       </c>
@@ -27791,7 +28841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2028</v>
       </c>
@@ -27811,7 +28861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2029</v>
       </c>
@@ -27831,7 +28881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2030</v>
       </c>
@@ -27851,7 +28901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2031</v>
       </c>
@@ -27871,7 +28921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2032</v>
       </c>
@@ -27891,7 +28941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2033</v>
       </c>
@@ -27911,7 +28961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2034</v>
       </c>
@@ -27931,7 +28981,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2035</v>
       </c>
@@ -27951,7 +29001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2036</v>
       </c>
@@ -27971,7 +29021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2037</v>
       </c>
@@ -27991,7 +29041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2038</v>
       </c>
@@ -28011,7 +29061,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2039</v>
       </c>
@@ -28031,7 +29081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2040</v>
       </c>
@@ -28051,7 +29101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2041</v>
       </c>
@@ -28071,7 +29121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2042</v>
       </c>
@@ -28091,7 +29141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2043</v>
       </c>
@@ -28111,7 +29161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2044</v>
       </c>
@@ -28131,7 +29181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2045</v>
       </c>
@@ -28151,7 +29201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2046</v>
       </c>
@@ -28171,7 +29221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2047</v>
       </c>
@@ -28191,7 +29241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2048</v>
       </c>
@@ -28211,7 +29261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2049</v>
       </c>
@@ -28231,7 +29281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2050</v>
       </c>
@@ -28261,30 +29311,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF334EA-9A50-43B1-8DC3-AE424E8C06D6}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -28325,7 +29375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -28348,7 +29398,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -28365,7 +29415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -28382,7 +29432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -28402,7 +29452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -28419,7 +29469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -28442,7 +29492,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -28465,7 +29515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -28488,7 +29538,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -28511,7 +29561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -28537,7 +29587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -28560,7 +29610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -28583,7 +29633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -28606,7 +29656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -28632,7 +29682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -28661,7 +29711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -28690,7 +29740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -28719,7 +29769,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -28748,7 +29798,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -28777,7 +29827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -28806,7 +29856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -28832,7 +29882,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -28858,7 +29908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -28884,7 +29934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -28907,7 +29957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -28924,7 +29974,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -28944,7 +29994,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -28958,7 +30008,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -28972,7 +30022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -28986,7 +30036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -29000,7 +30050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2025</v>
       </c>
@@ -29014,7 +30064,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2026</v>
       </c>
@@ -29028,7 +30078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2027</v>
       </c>
@@ -29042,7 +30092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2028</v>
       </c>
@@ -29056,7 +30106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2029</v>
       </c>
@@ -29070,7 +30120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2030</v>
       </c>
@@ -29090,7 +30140,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2031</v>
       </c>
@@ -29104,7 +30154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2032</v>
       </c>
@@ -29118,7 +30168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2033</v>
       </c>
@@ -29132,7 +30182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2034</v>
       </c>
@@ -29146,7 +30196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2035</v>
       </c>
@@ -29160,7 +30210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2036</v>
       </c>
@@ -29174,7 +30224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2037</v>
       </c>
@@ -29188,7 +30238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2038</v>
       </c>
@@ -29202,7 +30252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2039</v>
       </c>
@@ -29216,7 +30266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2040</v>
       </c>
@@ -29230,7 +30280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2041</v>
       </c>
@@ -29244,7 +30294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2042</v>
       </c>
@@ -29258,7 +30308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2043</v>
       </c>
@@ -29272,7 +30322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2044</v>
       </c>
@@ -29286,7 +30336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2045</v>
       </c>
@@ -29300,7 +30350,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2046</v>
       </c>
@@ -29314,7 +30364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2047</v>
       </c>
@@ -29328,7 +30378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2048</v>
       </c>
@@ -29342,7 +30392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2049</v>
       </c>
@@ -29356,7 +30406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2050</v>
       </c>
